--- a/data/trans_orig/P37A$medicoedad-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P37A$medicoedad-Dificultad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>57617</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>44475</v>
+        <v>43943</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>71837</v>
+        <v>70241</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.09863594841311654</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.07613722740448368</v>
+        <v>0.07522743084369861</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1229792672183402</v>
+        <v>0.1202462076092265</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>107</v>
@@ -765,19 +765,19 @@
         <v>112669</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>92229</v>
+        <v>93479</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>134503</v>
+        <v>134134</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1221570124925921</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.09999571859625496</v>
+        <v>0.1013510304981725</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1458291408409306</v>
+        <v>0.1454285498103609</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>169</v>
@@ -786,19 +786,19 @@
         <v>170287</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>145676</v>
+        <v>147096</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>194152</v>
+        <v>195308</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.113036627713251</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.09669969563745134</v>
+        <v>0.09764229724597273</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1288787408218352</v>
+        <v>0.1296461123567423</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>30539</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>21407</v>
+        <v>20384</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>42541</v>
+        <v>42165</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.05228050448488629</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.03664617361155383</v>
+        <v>0.03489617298923887</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.0728266299161993</v>
+        <v>0.07218277426380518</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>38</v>
@@ -836,19 +836,19 @@
         <v>38592</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>28469</v>
+        <v>28028</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>51178</v>
+        <v>51221</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.04184122683888473</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.03086665681169356</v>
+        <v>0.03038867406744415</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.05548701086378943</v>
+        <v>0.05553470360858682</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>69</v>
@@ -857,19 +857,19 @@
         <v>69131</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>56240</v>
+        <v>54200</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>87489</v>
+        <v>86698</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.04588909765919294</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.03733232697498792</v>
+        <v>0.0359778222270665</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.05807527548687156</v>
+        <v>0.0575500894636974</v>
       </c>
     </row>
     <row r="6">
@@ -889,7 +889,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>5515</v>
+        <v>5497</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.001556268672955084</v>
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.009441650039648102</v>
+        <v>0.009409805676644536</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>4</v>
@@ -907,19 +907,19 @@
         <v>3960</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>979</v>
+        <v>1028</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>8987</v>
+        <v>9917</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.004293069903721988</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.001061770513642002</v>
+        <v>0.00111440672274781</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.009743772956791194</v>
+        <v>0.01075227029717545</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>5</v>
@@ -928,19 +928,19 @@
         <v>4869</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>1879</v>
+        <v>1867</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>9976</v>
+        <v>10734</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.003231864500563838</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.001247412161867275</v>
+        <v>0.001239505780930496</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.006622366224946389</v>
+        <v>0.007124945500972983</v>
       </c>
     </row>
     <row r="7">
@@ -1004,19 +1004,19 @@
         <v>2862</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>877</v>
+        <v>889</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>7821</v>
+        <v>7669</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.004899368508653199</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.001500528072311974</v>
+        <v>0.001521400379593623</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.01338916428384472</v>
+        <v>0.01312829033077816</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1</v>
@@ -1028,7 +1028,7 @@
         <v>0</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>4980</v>
+        <v>6674</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.001072666261838049</v>
@@ -1037,7 +1037,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.005399517251090748</v>
+        <v>0.007236281671607644</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>4</v>
@@ -1046,19 +1046,19 @@
         <v>3851</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>963</v>
+        <v>986</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>9501</v>
+        <v>9802</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.002556485055451981</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.0006390260146055105</v>
+        <v>0.0006547576368197062</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.006306922442323573</v>
+        <v>0.006506894003304337</v>
       </c>
     </row>
     <row r="9">
@@ -1075,19 +1075,19 @@
         <v>19750</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>12307</v>
+        <v>12355</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>31206</v>
+        <v>32250</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.03381054284504552</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.02106845054167578</v>
+        <v>0.02115135468769469</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.05342155128959479</v>
+        <v>0.05520844397030993</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>31</v>
@@ -1096,19 +1096,19 @@
         <v>33616</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>22963</v>
+        <v>23002</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>46657</v>
+        <v>47023</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.03644722221238002</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.02489647032878147</v>
+        <v>0.02493883700135424</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.05058628940224279</v>
+        <v>0.05098214953951662</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>50</v>
@@ -1117,19 +1117,19 @@
         <v>53367</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>40019</v>
+        <v>40237</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>70625</v>
+        <v>70621</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.03542483945416015</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.02656493091660954</v>
+        <v>0.02670938535652161</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.04688086902139441</v>
+        <v>0.0468782233134443</v>
       </c>
     </row>
     <row r="10">
@@ -1150,19 +1150,19 @@
         <v>66170</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>52107</v>
+        <v>52419</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>82311</v>
+        <v>82461</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.06138791232228136</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.04834104773629013</v>
+        <v>0.04863127767429907</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.07636271098254477</v>
+        <v>0.07650184019186339</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>104</v>
@@ -1171,19 +1171,19 @@
         <v>110288</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>91877</v>
+        <v>92872</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>132673</v>
+        <v>130739</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1042875215652093</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.08687839462016828</v>
+        <v>0.08781866501214579</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1254545783137864</v>
+        <v>0.1236262617842213</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>174</v>
@@ -1192,19 +1192,19 @@
         <v>176458</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>151778</v>
+        <v>151906</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>203059</v>
+        <v>203463</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.08263324644466119</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.07107592759713624</v>
+        <v>0.07113574265896616</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.09509052078905812</v>
+        <v>0.09527970579986469</v>
       </c>
     </row>
     <row r="11">
@@ -1221,19 +1221,19 @@
         <v>41146</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>29896</v>
+        <v>30238</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>55328</v>
+        <v>56185</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.03817289805952635</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.02773563293143105</v>
+        <v>0.02805270022821066</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.05132960212845447</v>
+        <v>0.05212433243555274</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>27</v>
@@ -1242,19 +1242,19 @@
         <v>27476</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>18669</v>
+        <v>18179</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>39526</v>
+        <v>40186</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.02598122788373072</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.01765371774562191</v>
+        <v>0.01719017898763363</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.03737530652045312</v>
+        <v>0.03800001943879362</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>69</v>
@@ -1263,19 +1263,19 @@
         <v>68622</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>52992</v>
+        <v>53679</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>86583</v>
+        <v>85657</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.03213517158682356</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.02481578973357075</v>
+        <v>0.02513748751062894</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.04054591200394549</v>
+        <v>0.04011230187230862</v>
       </c>
     </row>
     <row r="12">
@@ -1295,7 +1295,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>11066</v>
+        <v>10483</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.002538836488993509</v>
@@ -1304,7 +1304,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.01026676222582903</v>
+        <v>0.009725755207454702</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>1</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>4805</v>
+        <v>4800</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.0009048207984449058</v>
@@ -1325,7 +1325,7 @@
         <v>0</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.004543241720519526</v>
+        <v>0.004538824538462355</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>3</v>
@@ -1334,19 +1334,19 @@
         <v>3693</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>956</v>
+        <v>950</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>10995</v>
+        <v>10913</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.001729616780013547</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.000447737877179097</v>
+        <v>0.0004446541689387606</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.005148729552272384</v>
+        <v>0.00511060271107784</v>
       </c>
     </row>
     <row r="13">
@@ -1379,7 +1379,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>4916</v>
+        <v>4905</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.0009273852228983575</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.004648995445908977</v>
+        <v>0.004638178654666043</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>4904</v>
+        <v>5330</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.0004592724565173349</v>
@@ -1409,7 +1409,7 @@
         <v>0</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.00229636089408533</v>
+        <v>0.002496159602390509</v>
       </c>
     </row>
     <row r="14">
@@ -1426,19 +1426,19 @@
         <v>8538</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>4526</v>
+        <v>3832</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>16308</v>
+        <v>15245</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.0079212320736764</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.004198822721479438</v>
+        <v>0.003555165206014247</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.01512954888964222</v>
+        <v>0.01414324488798993</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>5</v>
@@ -1447,19 +1447,19 @@
         <v>5002</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1907</v>
+        <v>1883</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>10965</v>
+        <v>10875</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.004729700333135854</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.001802830007081887</v>
+        <v>0.001780094189850452</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.01036836145703282</v>
+        <v>0.01028328673824623</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>14</v>
@@ -1468,19 +1468,19 @@
         <v>13540</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>7943</v>
+        <v>7350</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>22479</v>
+        <v>22096</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.006340677859161216</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.003719704057427233</v>
+        <v>0.00344182246798269</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.01052684852741867</v>
+        <v>0.01034730845131177</v>
       </c>
     </row>
     <row r="15">
@@ -1497,19 +1497,19 @@
         <v>30792</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>21568</v>
+        <v>21766</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>43572</v>
+        <v>42998</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.02856682590068326</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.02000903520224699</v>
+        <v>0.02019265236190605</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.0404228872559387</v>
+        <v>0.0398904328454095</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>23</v>
@@ -1518,19 +1518,19 @@
         <v>25362</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>16896</v>
+        <v>16578</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>37441</v>
+        <v>38493</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.02398186873469335</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.01597711142947116</v>
+        <v>0.01567646736319677</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.03540346632798481</v>
+        <v>0.03639909221469673</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>54</v>
@@ -1539,19 +1539,19 @@
         <v>56154</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>42339</v>
+        <v>42710</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>72440</v>
+        <v>72006</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.0262962003950602</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.01982705490121531</v>
+        <v>0.02000052734655308</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.03392297431336036</v>
+        <v>0.03371953181732992</v>
       </c>
     </row>
     <row r="16">
@@ -1572,19 +1572,19 @@
         <v>53508</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>40436</v>
+        <v>40792</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>68765</v>
+        <v>69216</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.04770671781434573</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.03605255883529045</v>
+        <v>0.03637010238723883</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.06131011432676219</v>
+        <v>0.0617123234352342</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>72</v>
@@ -1593,19 +1593,19 @@
         <v>76972</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>61355</v>
+        <v>60786</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>95923</v>
+        <v>94685</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.07744163032093106</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.0617287500754345</v>
+        <v>0.06115637601732324</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.09650783720394959</v>
+        <v>0.09526262792371182</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>126</v>
@@ -1614,19 +1614,19 @@
         <v>130480</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>110920</v>
+        <v>110058</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>156096</v>
+        <v>155295</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.06167704816797645</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.05243128538660723</v>
+        <v>0.05202384219764791</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.0737857519380095</v>
+        <v>0.07340684326039645</v>
       </c>
     </row>
     <row r="17">
@@ -1643,19 +1643,19 @@
         <v>29537</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>19622</v>
+        <v>19968</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>41107</v>
+        <v>42352</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.02633461392625594</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.01749438416569524</v>
+        <v>0.01780292767113079</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.03665050683109531</v>
+        <v>0.0377602308133048</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>21</v>
@@ -1664,19 +1664,19 @@
         <v>20644</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>12740</v>
+        <v>13145</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>30241</v>
+        <v>31640</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.02077032322773296</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.01281732580173403</v>
+        <v>0.01322550146260622</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.03042513972808839</v>
+        <v>0.03183324230591762</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>51</v>
@@ -1685,19 +1685,19 @@
         <v>50181</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>38232</v>
+        <v>37526</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>65513</v>
+        <v>64080</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.023720347641639</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.01807216391935628</v>
+        <v>0.0177380977038066</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.03096768025652998</v>
+        <v>0.03029018526179234</v>
       </c>
     </row>
     <row r="18">
@@ -1714,19 +1714,19 @@
         <v>2890</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>892</v>
+        <v>884</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>7892</v>
+        <v>8492</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.002576842343307514</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.0007949167418946535</v>
+        <v>0.0007884829111376843</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.007036844493177981</v>
+        <v>0.007570991881613043</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>2</v>
@@ -1738,7 +1738,7 @@
         <v>0</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>7939</v>
+        <v>8062</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.002316725003852368</v>
@@ -1747,7 +1747,7 @@
         <v>0</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.007987321414276771</v>
+        <v>0.008110748436233222</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>5</v>
@@ -1756,19 +1756,19 @@
         <v>5193</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>1932</v>
+        <v>1938</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>11565</v>
+        <v>12201</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.002454631620067918</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.0009130497049982978</v>
+        <v>0.0009159691513311367</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.005466580571495678</v>
+        <v>0.005767395991258204</v>
       </c>
     </row>
     <row r="19">
@@ -1785,19 +1785,19 @@
         <v>2794</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>868</v>
+        <v>870</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>7553</v>
+        <v>7547</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.0024907613358873</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.0007742830271550493</v>
+        <v>0.0007753290946718948</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.006734190863894419</v>
+        <v>0.006729025776401598</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>2</v>
@@ -1809,7 +1809,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>6318</v>
+        <v>5692</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.001883105190823542</v>
@@ -1818,7 +1818,7 @@
         <v>0</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.006356639781495184</v>
+        <v>0.005727026512242673</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>5</v>
@@ -1827,19 +1827,19 @@
         <v>4665</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>1774</v>
+        <v>1771</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>10447</v>
+        <v>10427</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.002205266731318533</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.0008387221947625561</v>
+        <v>0.0008370293263133502</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.004938121778263104</v>
+        <v>0.004928609416136165</v>
       </c>
     </row>
     <row r="20">
@@ -1856,19 +1856,19 @@
         <v>13524</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>7614</v>
+        <v>7768</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>22725</v>
+        <v>23166</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.01205742466800627</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.00678816178200137</v>
+        <v>0.006926069063313572</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.02026135852527383</v>
+        <v>0.02065453931788019</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>9</v>
@@ -1877,19 +1877,19 @@
         <v>8838</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>3987</v>
+        <v>4039</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>16615</v>
+        <v>16560</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.00889208297644198</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.004011055247386583</v>
+        <v>0.00406335996422234</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.01671656428734563</v>
+        <v>0.01666114979167337</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>22</v>
@@ -1898,19 +1898,19 @@
         <v>22362</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>14620</v>
+        <v>14514</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>34311</v>
+        <v>33550</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.01057025469219148</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.006910739612802893</v>
+        <v>0.006860808149600432</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.01621845780479168</v>
+        <v>0.01585894532267307</v>
       </c>
     </row>
     <row r="21">
@@ -1927,19 +1927,19 @@
         <v>24153</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>14909</v>
+        <v>15880</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>35947</v>
+        <v>37463</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.02153432668927914</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.01329231957064405</v>
+        <v>0.01415805712055395</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.03204961050155904</v>
+        <v>0.03340184207473732</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>13</v>
@@ -1948,19 +1948,19 @@
         <v>13652</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>7679</v>
+        <v>6841</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>23234</v>
+        <v>22171</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.01373562468603679</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.007725412339285012</v>
+        <v>0.006883143819712511</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.02337519030684026</v>
+        <v>0.02230665696229966</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>35</v>
@@ -1969,19 +1969,19 @@
         <v>37805</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>26281</v>
+        <v>26845</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>52168</v>
+        <v>54065</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.01787026871397189</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.01242307646568505</v>
+        <v>0.01268945184179405</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.02465929763582649</v>
+        <v>0.02555634541702079</v>
       </c>
     </row>
     <row r="22">
@@ -2002,19 +2002,19 @@
         <v>23410</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>15525</v>
+        <v>15806</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>34871</v>
+        <v>34539</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.05234753680370206</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.03471684201918828</v>
+        <v>0.03534524208202997</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.07797549587532455</v>
+        <v>0.07723381779752683</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>21</v>
@@ -2023,19 +2023,19 @@
         <v>21598</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>13679</v>
+        <v>14499</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>31740</v>
+        <v>31947</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.06330854942097489</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.04009443769451575</v>
+        <v>0.04249933419160375</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.09303721567094657</v>
+        <v>0.09364200572509537</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>45</v>
@@ -2044,19 +2044,19 @@
         <v>45008</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>32910</v>
+        <v>33782</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>59024</v>
+        <v>59953</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.05709086373102741</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.04174521651475112</v>
+        <v>0.04285046051391118</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.07486924303719671</v>
+        <v>0.07604815174597523</v>
       </c>
     </row>
     <row r="23">
@@ -2073,19 +2073,19 @@
         <v>9647</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>4280</v>
+        <v>3772</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>18632</v>
+        <v>18136</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.0215716873902793</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.009569798399626198</v>
+        <v>0.008435450356987359</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.04166461001929438</v>
+        <v>0.04055368904996025</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>7</v>
@@ -2094,19 +2094,19 @@
         <v>6706</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>2785</v>
+        <v>2801</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>12704</v>
+        <v>13176</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.01965679356729027</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.0081632201560254</v>
+        <v>0.008209527939868776</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.03723869739665755</v>
+        <v>0.03862058461463128</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>15</v>
@@ -2115,19 +2115,19 @@
         <v>16353</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>9209</v>
+        <v>9104</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>26242</v>
+        <v>26006</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.02074302604750888</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.01168129387456911</v>
+        <v>0.01154753463094731</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.03328735947773585</v>
+        <v>0.03298762279177982</v>
       </c>
     </row>
     <row r="24">
@@ -2147,7 +2147,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>4280</v>
+        <v>3950</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.00189592643111835</v>
@@ -2156,7 +2156,7 @@
         <v>0</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.009569909133794602</v>
+        <v>0.008832774346253921</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>0</v>
@@ -2181,7 +2181,7 @@
         <v>0</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>4240</v>
+        <v>4235</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.001075473138438075</v>
@@ -2190,7 +2190,7 @@
         <v>0</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.005378400508159764</v>
+        <v>0.00537193509309131</v>
       </c>
     </row>
     <row r="25">
@@ -2210,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>4652</v>
+        <v>3812</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.001720485127450125</v>
@@ -2219,7 +2219,7 @@
         <v>0</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.01040219015020797</v>
+        <v>0.008524116672825271</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>1</v>
@@ -2231,7 +2231,7 @@
         <v>0</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>7163</v>
+        <v>8378</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.003869139288083524</v>
@@ -2240,7 +2240,7 @@
         <v>0</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.02099699441659387</v>
+        <v>0.02455738304907978</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>2</v>
@@ -2252,7 +2252,7 @@
         <v>0</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>7641</v>
+        <v>7638</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.002650305162652114</v>
@@ -2261,7 +2261,7 @@
         <v>0</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.009691826462587328</v>
+        <v>0.009689053060411016</v>
       </c>
     </row>
     <row r="26">
@@ -2278,19 +2278,19 @@
         <v>9931</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>4760</v>
+        <v>4512</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>19400</v>
+        <v>17841</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.02220711693457706</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.01064451490447711</v>
+        <v>0.01008881362159748</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.04338080640234773</v>
+        <v>0.03989481202790931</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>3</v>
@@ -2299,19 +2299,19 @@
         <v>3056</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>901</v>
+        <v>909</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>8233</v>
+        <v>9012</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.008958036050469017</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.002639987122182204</v>
+        <v>0.002663480616584654</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.02413255767212987</v>
+        <v>0.02641650444199412</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>12</v>
@@ -2320,19 +2320,19 @@
         <v>12987</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>7187</v>
+        <v>6854</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>22624</v>
+        <v>22850</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.01647363916986143</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.009116091234796469</v>
+        <v>0.00869343595853897</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.02869772223836383</v>
+        <v>0.02898457733200625</v>
       </c>
     </row>
     <row r="27">
@@ -2349,19 +2349,19 @@
         <v>14389</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>8190</v>
+        <v>7986</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>23396</v>
+        <v>23580</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.0321752074197813</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.01831490691795045</v>
+        <v>0.01785697920182305</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.05231656060783756</v>
+        <v>0.05272819949124678</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>12</v>
@@ -2370,19 +2370,19 @@
         <v>13191</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>7281</v>
+        <v>6846</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>21784</v>
+        <v>21283</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.03866548446032444</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.02134297372655813</v>
+        <v>0.02006560609483544</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.06385178221473627</v>
+        <v>0.06238372102183535</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>27</v>
@@ -2391,19 +2391,19 @@
         <v>27580</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>18336</v>
+        <v>19166</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>38778</v>
+        <v>40820</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.03498384444330745</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.02325886809140931</v>
+        <v>0.02431089630053822</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.04918783753902144</v>
+        <v>0.05177878049514056</v>
       </c>
     </row>
     <row r="28">
@@ -2424,19 +2424,19 @@
         <v>200704</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>173373</v>
+        <v>176602</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>226975</v>
+        <v>230821</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.06212162999041609</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.05366208938187393</v>
+        <v>0.05466140275186162</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.07025291827020982</v>
+        <v>0.07144337700604797</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>304</v>
@@ -2445,19 +2445,19 @@
         <v>321528</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>286963</v>
+        <v>287923</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>354266</v>
+        <v>358605</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.09699276733262926</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.08656580187137025</v>
+        <v>0.08685534496285852</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1068686386236083</v>
+        <v>0.1081775038369696</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>514</v>
@@ -2466,19 +2466,19 @@
         <v>522232</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>476020</v>
+        <v>477508</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>568293</v>
+        <v>565148</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.07978131502562476</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.07272152177889098</v>
+        <v>0.07294880997447421</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.08681791468873001</v>
+        <v>0.08633759995655198</v>
       </c>
     </row>
     <row r="29">
@@ -2495,19 +2495,19 @@
         <v>110869</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>92178</v>
+        <v>91603</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>131241</v>
+        <v>131379</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.03431600256040189</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.02853065470311055</v>
+        <v>0.02835274560373333</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.04062148540888408</v>
+        <v>0.04066408678127845</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>93</v>
@@ -2516,19 +2516,19 @@
         <v>93418</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>76604</v>
+        <v>75872</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>115031</v>
+        <v>112513</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.02818071925536685</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.02310860671721432</v>
+        <v>0.02288777998525185</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.03470055758119378</v>
+        <v>0.03394095982636662</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>204</v>
@@ -2537,19 +2537,19 @@
         <v>204287</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>174995</v>
+        <v>178654</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>230840</v>
+        <v>235179</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.03120892951872242</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.02673398258538891</v>
+        <v>0.02729296080266411</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.03526529539501268</v>
+        <v>0.0359282186216084</v>
       </c>
     </row>
     <row r="30">
@@ -2566,19 +2566,19 @@
         <v>7384</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>3465</v>
+        <v>3232</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>15055</v>
+        <v>15396</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.002285390568368198</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.001072362666475972</v>
+        <v>0.001000432993688905</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.004659888874158336</v>
+        <v>0.004765357231498624</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>7</v>
@@ -2587,19 +2587,19 @@
         <v>7219</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>2949</v>
+        <v>3001</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>15037</v>
+        <v>14070</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.002177760419904638</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.0008897474937602409</v>
+        <v>0.0009053505339382353</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.004536223932342594</v>
+        <v>0.00424448725205999</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>14</v>
@@ -2608,19 +2608,19 @@
         <v>14603</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>8008</v>
+        <v>8092</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>23537</v>
+        <v>24217</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.002230883756516716</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.001223440447392729</v>
+        <v>0.00123621095401351</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.003595711386054763</v>
+        <v>0.003699681290938053</v>
       </c>
     </row>
     <row r="31">
@@ -2637,19 +2637,19 @@
         <v>3563</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>1037</v>
+        <v>874</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>9036</v>
+        <v>8654</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.001102820340061216</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.0003210794394376355</v>
+        <v>0.0002704610596023869</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.002796665736159817</v>
+        <v>0.0026784818075744</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>4</v>
@@ -2658,19 +2658,19 @@
         <v>4172</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>992</v>
+        <v>1320</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>9988</v>
+        <v>11672</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.00125866229563145</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.0002991175286080319</v>
+        <v>0.0003982468703675614</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.003013150207193036</v>
+        <v>0.003520987536458939</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>8</v>
@@ -2679,19 +2679,19 @@
         <v>7735</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>3631</v>
+        <v>3739</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>14833</v>
+        <v>15446</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.001181742912148067</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.0005547515365451051</v>
+        <v>0.0005711492730313243</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.002266109998779681</v>
+        <v>0.002359713460295397</v>
       </c>
     </row>
     <row r="32">
@@ -2708,19 +2708,19 @@
         <v>34855</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>23755</v>
+        <v>23966</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>48024</v>
+        <v>48083</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.01078816681112256</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.007352537263345953</v>
+        <v>0.007418005264286836</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.0148642887099438</v>
+        <v>0.01488246863694934</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>18</v>
@@ -2729,19 +2729,19 @@
         <v>17885</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>10692</v>
+        <v>11012</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>28010</v>
+        <v>28169</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.005395373199687703</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.003225392380468395</v>
+        <v>0.003321988432198888</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.008449518422606802</v>
+        <v>0.008497593225590343</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>52</v>
@@ -2750,19 +2750,19 @@
         <v>52740</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>39890</v>
+        <v>39131</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>68796</v>
+        <v>68478</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.008057110588229065</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.006093934663614717</v>
+        <v>0.005978054067401095</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.01050995435695688</v>
+        <v>0.01046134164118625</v>
       </c>
     </row>
     <row r="33">
@@ -2779,19 +2779,19 @@
         <v>89084</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>69172</v>
+        <v>72596</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>108928</v>
+        <v>110521</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.02757300274411945</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.02141013336974069</v>
+        <v>0.0224696220936327</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.0337152465170397</v>
+        <v>0.03420812555919498</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>79</v>
@@ -2800,19 +2800,19 @@
         <v>85822</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>68459</v>
+        <v>68294</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>109669</v>
+        <v>105591</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.02588912465266223</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.02065143357779978</v>
+        <v>0.02060168073505723</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.03308296629790732</v>
+        <v>0.03185273876398892</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>166</v>
@@ -2821,19 +2821,19 @@
         <v>174905</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>149491</v>
+        <v>150176</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>201023</v>
+        <v>205498</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.02672024143493138</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.02283777635828795</v>
+        <v>0.0229422979624335</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.03071024411904918</v>
+        <v>0.03139384051332036</v>
       </c>
     </row>
     <row r="34">
@@ -3094,19 +3094,19 @@
         <v>72746</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>57133</v>
+        <v>57294</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>92124</v>
+        <v>90746</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.06968451332867322</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.05472805014365793</v>
+        <v>0.05488302606441699</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.08824659950762384</v>
+        <v>0.08692704860447772</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>102</v>
@@ -3115,19 +3115,19 @@
         <v>110871</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>90202</v>
+        <v>90747</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>133688</v>
+        <v>133935</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.09899823646945428</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.08054300062196257</v>
+        <v>0.08102921985157542</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1193721554775656</v>
+        <v>0.1195921028657577</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>169</v>
@@ -3136,19 +3136,19 @@
         <v>183617</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>156267</v>
+        <v>157976</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>208225</v>
+        <v>208785</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.08485611496988511</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.07221675160110187</v>
+        <v>0.07300656760724876</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.0962284339174891</v>
+        <v>0.09648736177236143</v>
       </c>
     </row>
     <row r="5">
@@ -3165,19 +3165,19 @@
         <v>52834</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>40056</v>
+        <v>38622</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>68849</v>
+        <v>69996</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.05061001556150327</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.03836982353783849</v>
+        <v>0.0369966415249867</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.06595185733996912</v>
+        <v>0.06704993588384101</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>57</v>
@@ -3186,19 +3186,19 @@
         <v>59268</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>45920</v>
+        <v>44756</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>76305</v>
+        <v>74775</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.05292084238497578</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.04100235920046914</v>
+        <v>0.03996358997756649</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.06813361414021719</v>
+        <v>0.06676763223485005</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>105</v>
@@ -3207,19 +3207,19 @@
         <v>112101</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>91352</v>
+        <v>93278</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>136360</v>
+        <v>135161</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.05180600639007114</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.04221726133837519</v>
+        <v>0.0431073288336685</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.06301689700696507</v>
+        <v>0.06246278363572888</v>
       </c>
     </row>
     <row r="6">
@@ -3239,7 +3239,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>3662</v>
+        <v>4129</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.0006962272499097443</v>
@@ -3248,7 +3248,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.003507460678827565</v>
+        <v>0.003955073280531111</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>3</v>
@@ -3257,19 +3257,19 @@
         <v>3094</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>9563</v>
+        <v>9164</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.002762729857816223</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.0007934257784603408</v>
+        <v>0.0007944577335976597</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.008538829302506859</v>
+        <v>0.008182621990336239</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>4</v>
@@ -3278,19 +3278,19 @@
         <v>3821</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>1072</v>
+        <v>1074</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>8838</v>
+        <v>9356</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.00176576571171181</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.0004955344067019758</v>
+        <v>0.0004965114005526783</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.004084324399657796</v>
+        <v>0.004323761152883375</v>
       </c>
     </row>
     <row r="7">
@@ -3310,7 +3310,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>4850</v>
+        <v>4429</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.0009229615440363708</v>
@@ -3319,7 +3319,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.004645872787634828</v>
+        <v>0.004242290016159353</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>3</v>
@@ -3328,19 +3328,19 @@
         <v>3204</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>936</v>
+        <v>933</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>9654</v>
+        <v>9446</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.002860830536026589</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.0008360692383188388</v>
+        <v>0.0008326551914114075</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.008620177297919777</v>
+        <v>0.008434414402758184</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>4</v>
@@ -3349,19 +3349,19 @@
         <v>4167</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1019</v>
+        <v>1023</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>11055</v>
+        <v>10080</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.00192592443067258</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.0004710618779880273</v>
+        <v>0.0004727410539128424</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.005109087964749982</v>
+        <v>0.004658334514603031</v>
       </c>
     </row>
     <row r="8">
@@ -3378,19 +3378,19 @@
         <v>6361</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>2314</v>
+        <v>2101</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>15990</v>
+        <v>14493</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.006093397916640159</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.002216651428076209</v>
+        <v>0.002012982382852224</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.01531728220910438</v>
+        <v>0.01388343877490426</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>8</v>
@@ -3399,19 +3399,19 @@
         <v>8797</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>3905</v>
+        <v>3899</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>17459</v>
+        <v>17340</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.00785515293665801</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.003486699145343759</v>
+        <v>0.003481660018636801</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.01558942122537028</v>
+        <v>0.01548288970058886</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>13</v>
@@ -3420,19 +3420,19 @@
         <v>15158</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>8045</v>
+        <v>8186</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>24862</v>
+        <v>26964</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.007005211309457921</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.003717777077103355</v>
+        <v>0.003783054684506592</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.01148967633637885</v>
+        <v>0.01246097837384067</v>
       </c>
     </row>
     <row r="9">
@@ -3449,19 +3449,19 @@
         <v>25293</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>16000</v>
+        <v>16120</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>38424</v>
+        <v>37926</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.02422852582307039</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.01532694364460575</v>
+        <v>0.01544141353437914</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.03680643698230608</v>
+        <v>0.03633016943773536</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>21</v>
@@ -3470,19 +3470,19 @@
         <v>21702</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>13520</v>
+        <v>13961</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>32127</v>
+        <v>32499</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.01937799301495158</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.01207209588985468</v>
+        <v>0.01246604388576675</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.02868652876223885</v>
+        <v>0.02901858614713233</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>44</v>
@@ -3491,19 +3491,19 @@
         <v>46995</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>34941</v>
+        <v>34211</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>61774</v>
+        <v>63374</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.02171808553682681</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.01614764544727742</v>
+        <v>0.01581007430970085</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.0285480255734995</v>
+        <v>0.02928758892284749</v>
       </c>
     </row>
     <row r="10">
@@ -3524,19 +3524,19 @@
         <v>95815</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>76611</v>
+        <v>76483</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>115226</v>
+        <v>115019</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.09806371909360065</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.07840915336440704</v>
+        <v>0.07827779447668486</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1179296721411115</v>
+        <v>0.1177174314473952</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>105</v>
@@ -3545,19 +3545,19 @@
         <v>111606</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>93126</v>
+        <v>92384</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>132982</v>
+        <v>135711</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1019918265065328</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.08510395470819337</v>
+        <v>0.08442543277744874</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1215271076674192</v>
+        <v>0.1240201297637341</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>192</v>
@@ -3566,19 +3566,19 @@
         <v>207421</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>181087</v>
+        <v>179028</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>237745</v>
+        <v>237443</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1001388925494397</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.08742513807732395</v>
+        <v>0.08643108488961873</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1147785833293844</v>
+        <v>0.1146330055590884</v>
       </c>
     </row>
     <row r="11">
@@ -3595,19 +3595,19 @@
         <v>33666</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>22910</v>
+        <v>22826</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>49834</v>
+        <v>47463</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.03445646035300844</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.02344741445151691</v>
+        <v>0.02336206145379409</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.05100308952470838</v>
+        <v>0.04857625856414048</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>41</v>
@@ -3616,19 +3616,19 @@
         <v>44576</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>32545</v>
+        <v>31991</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>60559</v>
+        <v>59881</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.04073613454342365</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.02974125825358342</v>
+        <v>0.02923478402863431</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.05534272823246348</v>
+        <v>0.05472252524264156</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>71</v>
@@ -3637,19 +3637,19 @@
         <v>78242</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>60679</v>
+        <v>60999</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>98846</v>
+        <v>99493</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.03777393918476478</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.02929449206114835</v>
+        <v>0.02944916542937851</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.04772101730773677</v>
+        <v>0.04803341555343963</v>
       </c>
     </row>
     <row r="12">
@@ -3666,19 +3666,19 @@
         <v>2821</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>846</v>
+        <v>850</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>7775</v>
+        <v>7669</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.002886756498697717</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.0008655990652609643</v>
+        <v>0.0008699091569176647</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.007957730605562817</v>
+        <v>0.007849250623848704</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>5</v>
@@ -3687,19 +3687,19 @@
         <v>5192</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>1976</v>
+        <v>1937</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>12653</v>
+        <v>11647</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.004745166682475073</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.001805871812230234</v>
+        <v>0.001770046159943096</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.01156289446162436</v>
+        <v>0.01064414836446215</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>8</v>
@@ -3708,19 +3708,19 @@
         <v>8013</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>3920</v>
+        <v>3867</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>14869</v>
+        <v>14859</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.003868532982390439</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.001892495477709534</v>
+        <v>0.001866951277303461</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.007178294812018638</v>
+        <v>0.007173657745100364</v>
       </c>
     </row>
     <row r="13">
@@ -3784,19 +3784,19 @@
         <v>10734</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>5117</v>
+        <v>5559</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>19993</v>
+        <v>19494</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.01098610510740877</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.005236846306003125</v>
+        <v>0.005689148883861995</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.02046261114251186</v>
+        <v>0.01995169770814266</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>7</v>
@@ -3805,19 +3805,19 @@
         <v>8584</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3635</v>
+        <v>3899</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>18279</v>
+        <v>17939</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.007844265755556757</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.003321720931076156</v>
+        <v>0.003563133816853667</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.01670441652421282</v>
+        <v>0.01639349290650362</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>17</v>
@@ -3826,19 +3826,19 @@
         <v>19318</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>11223</v>
+        <v>11527</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>32204</v>
+        <v>31698</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.009326307922634931</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.00541806157840307</v>
+        <v>0.005565145687928969</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.01554741733249257</v>
+        <v>0.01530308811965811</v>
       </c>
     </row>
     <row r="15">
@@ -3855,19 +3855,19 @@
         <v>33059</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>23621</v>
+        <v>23771</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>46391</v>
+        <v>47102</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.03383520543776186</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.02417542616761773</v>
+        <v>0.02432928174300851</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.04747988338859849</v>
+        <v>0.0482076213913491</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>24</v>
@@ -3876,19 +3876,19 @@
         <v>24956</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>16166</v>
+        <v>15979</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>35666</v>
+        <v>36312</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.02280653482020686</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.01477371458583086</v>
+        <v>0.01460248209564682</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.03259369548983888</v>
+        <v>0.03318396114001036</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>56</v>
@@ -3897,19 +3897,19 @@
         <v>58016</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>44438</v>
+        <v>44654</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>74806</v>
+        <v>73872</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.02800888703226307</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.0214540278739427</v>
+        <v>0.02155829988788497</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.03611486567589317</v>
+        <v>0.0356637926148184</v>
       </c>
     </row>
     <row r="16">
@@ -3930,19 +3930,19 @@
         <v>97530</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>78575</v>
+        <v>78865</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>117428</v>
+        <v>119090</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1101886371384926</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.08877424646974198</v>
+        <v>0.08910143284632917</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1326701148461228</v>
+        <v>0.1345479869368531</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>95</v>
@@ -3951,19 +3951,19 @@
         <v>103941</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>84856</v>
+        <v>84647</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>122364</v>
+        <v>124860</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1186813560625434</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.09689015555128376</v>
+        <v>0.09665097586985863</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1397170153134133</v>
+        <v>0.1425672114765693</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>181</v>
@@ -3972,19 +3972,19 @@
         <v>201470</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>174989</v>
+        <v>175994</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>230465</v>
+        <v>231820</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.114412523453944</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.09937413696592232</v>
+        <v>0.09994473179791177</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1308782404327546</v>
+        <v>0.1316480387289761</v>
       </c>
     </row>
     <row r="17">
@@ -4001,19 +4001,19 @@
         <v>25093</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>16507</v>
+        <v>16826</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>37282</v>
+        <v>36969</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.02835015403573141</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.01865004532549056</v>
+        <v>0.01901038004346566</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.04212158645936729</v>
+        <v>0.04176730983976486</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>22</v>
@@ -4022,19 +4022,19 @@
         <v>23710</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>15354</v>
+        <v>15788</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>35856</v>
+        <v>35984</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.02707296867728525</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.01753169765185906</v>
+        <v>0.01802654783964946</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.04094115937358116</v>
+        <v>0.0410874440514728</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>45</v>
@@ -4043,19 +4043,19 @@
         <v>48804</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>36496</v>
+        <v>35967</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>65350</v>
+        <v>65798</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.02771494100135696</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.02072549498762394</v>
+        <v>0.02042512025495662</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.03711146307659101</v>
+        <v>0.03736592291092466</v>
       </c>
     </row>
     <row r="18">
@@ -4072,19 +4072,19 @@
         <v>7642</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>3273</v>
+        <v>3184</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>16212</v>
+        <v>15215</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.008634406151579037</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.003698127232788576</v>
+        <v>0.003596876907598243</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.01831624096543544</v>
+        <v>0.01718976351839537</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>9</v>
@@ -4093,19 +4093,19 @@
         <v>9192</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>4996</v>
+        <v>4930</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>16188</v>
+        <v>16519</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.01049508097599456</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.005704989665190997</v>
+        <v>0.00562957443626501</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.01848357357679946</v>
+        <v>0.01886115629251652</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>16</v>
@@ -4114,19 +4114,19 @@
         <v>16834</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>10361</v>
+        <v>9613</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>28028</v>
+        <v>26899</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.009559819908779533</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.00588394030383369</v>
+        <v>0.005459015451384715</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.01591679741328854</v>
+        <v>0.01527539798748872</v>
       </c>
     </row>
     <row r="19">
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>4620</v>
+        <v>4845</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.001089586794652815</v>
@@ -4155,7 +4155,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.005219221765218396</v>
+        <v>0.005473375110244415</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>1</v>
@@ -4167,7 +4167,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>5887</v>
+        <v>5876</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.001338705770138204</v>
@@ -4176,7 +4176,7 @@
         <v>0</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.006721988189692303</v>
+        <v>0.00670961598469415</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>2</v>
@@ -4188,7 +4188,7 @@
         <v>0</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>7830</v>
+        <v>7413</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.00121348707215901</v>
@@ -4197,7 +4197,7 @@
         <v>0</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.004446423236974909</v>
+        <v>0.004209843879864136</v>
       </c>
     </row>
     <row r="20">
@@ -4214,19 +4214,19 @@
         <v>13632</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>7472</v>
+        <v>7566</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>23898</v>
+        <v>23670</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.01540098310435149</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.008441427150989032</v>
+        <v>0.008548295904049076</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.02699948578281249</v>
+        <v>0.02674255969378512</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>6</v>
@@ -4235,19 +4235,19 @@
         <v>6528</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>2971</v>
+        <v>2313</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>14487</v>
+        <v>13907</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.007454086734849251</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.003392568808653255</v>
+        <v>0.002641335962404847</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.01654146078632223</v>
+        <v>0.0158794457452328</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>19</v>
@@ -4256,19 +4256,19 @@
         <v>20160</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>11955</v>
+        <v>11835</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>31169</v>
+        <v>29717</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.01144856372892722</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.006788959132181993</v>
+        <v>0.006721223334519653</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.01770069640633705</v>
+        <v>0.01687576277591714</v>
       </c>
     </row>
     <row r="21">
@@ -4285,19 +4285,19 @@
         <v>24922</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>15910</v>
+        <v>16027</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>38006</v>
+        <v>36675</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.02815724844460191</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.01797527283253431</v>
+        <v>0.01810723514986716</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.0429387714491397</v>
+        <v>0.04143569260547928</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>13</v>
@@ -4306,19 +4306,19 @@
         <v>13454</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>7863</v>
+        <v>7458</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>23126</v>
+        <v>22928</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.01536204145643415</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.008977573559953158</v>
+        <v>0.008515115499682325</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.02640544352295968</v>
+        <v>0.02617932737796818</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>36</v>
@@ -4327,19 +4327,19 @@
         <v>38376</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>27947</v>
+        <v>27197</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>53780</v>
+        <v>52291</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.02179350319599413</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.0158706745303364</v>
+        <v>0.0154448384659333</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.03054094835920508</v>
+        <v>0.02969537086713614</v>
       </c>
     </row>
     <row r="22">
@@ -4360,19 +4360,19 @@
         <v>44392</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>33223</v>
+        <v>33257</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>61426</v>
+        <v>61155</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.08825088053778836</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.06604649404024296</v>
+        <v>0.06611467095537958</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1221139342204793</v>
+        <v>0.121574888638309</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>39</v>
@@ -4381,19 +4381,19 @@
         <v>42393</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>30074</v>
+        <v>31453</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>56761</v>
+        <v>55605</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.09363785475889179</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.06642761095567175</v>
+        <v>0.06947332175417534</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1253733538208646</v>
+        <v>0.122819191455874</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>79</v>
@@ -4402,19 +4402,19 @@
         <v>86785</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>68835</v>
+        <v>69110</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>107464</v>
+        <v>105324</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.09080265022458488</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.07202163357666319</v>
+        <v>0.07230877630080136</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1124380361737875</v>
+        <v>0.1101998326029581</v>
       </c>
     </row>
     <row r="23">
@@ -4431,19 +4431,19 @@
         <v>13565</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>7133</v>
+        <v>7217</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>22595</v>
+        <v>23029</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.02696679784048886</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.01418036397099305</v>
+        <v>0.01434670271476589</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.04491848067804917</v>
+        <v>0.04578098994557975</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>11</v>
@@ -4452,19 +4452,19 @@
         <v>12743</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>6636</v>
+        <v>6350</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>22869</v>
+        <v>22074</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.0281473549122313</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.01465769980727195</v>
+        <v>0.01402555344370327</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.05051294920455816</v>
+        <v>0.04875741689361967</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>23</v>
@@ -4473,19 +4473,19 @@
         <v>26308</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>16776</v>
+        <v>17222</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>39189</v>
+        <v>38947</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.02752601895897949</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.0175521523713958</v>
+        <v>0.01801924006580513</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.04100268454591775</v>
+        <v>0.04074988771859548</v>
       </c>
     </row>
     <row r="24">
@@ -4502,19 +4502,19 @@
         <v>5906</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1908</v>
+        <v>1923</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>16832</v>
+        <v>15452</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.01174089418531376</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.003793198763290633</v>
+        <v>0.003823870183196893</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.0334622312388223</v>
+        <v>0.03071782455484466</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>7</v>
@@ -4523,19 +4523,19 @@
         <v>8875</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>3113</v>
+        <v>3823</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>18025</v>
+        <v>17582</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.01960297490022414</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.00687577272798627</v>
+        <v>0.008443651044690604</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.03981421942050323</v>
+        <v>0.03883443916341568</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>11</v>
@@ -4544,19 +4544,19 @@
         <v>14781</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>7586</v>
+        <v>7129</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>26126</v>
+        <v>25862</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.01546510343897274</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.007936957755188094</v>
+        <v>0.007459178316040228</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.02733538718870337</v>
+        <v>0.02705943116239416</v>
       </c>
     </row>
     <row r="25">
@@ -4589,7 +4589,7 @@
         <v>0</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>4747</v>
+        <v>5886</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.002238705698195977</v>
@@ -4598,7 +4598,7 @@
         <v>0</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.01048424831203842</v>
+        <v>0.0130018944786286</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>1</v>
@@ -4610,7 +4610,7 @@
         <v>0</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>5069</v>
+        <v>5613</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.001060458265409145</v>
@@ -4619,7 +4619,7 @@
         <v>0</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.005303120696421944</v>
+        <v>0.005872477891739473</v>
       </c>
     </row>
     <row r="26">
@@ -4636,19 +4636,19 @@
         <v>13974</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>7784</v>
+        <v>8109</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>24333</v>
+        <v>24357</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.02778089201514178</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.01547370953538621</v>
+        <v>0.01612024611897595</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.04837298444802546</v>
+        <v>0.04842122398658075</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>5</v>
@@ -4657,19 +4657,19 @@
         <v>5896</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>2042</v>
+        <v>1978</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>14526</v>
+        <v>13956</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.01302231408288743</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.004510544541981625</v>
+        <v>0.00436863546470745</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.03208416340042006</v>
+        <v>0.03082577342087847</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>18</v>
@@ -4678,19 +4678,19 @@
         <v>19870</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>11902</v>
+        <v>11452</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>31047</v>
+        <v>30696</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.02078986324054399</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.01245287785767381</v>
+        <v>0.01198206907397252</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.03248429644806258</v>
+        <v>0.03211733948822691</v>
       </c>
     </row>
     <row r="27">
@@ -4707,19 +4707,19 @@
         <v>21114</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>12309</v>
+        <v>13582</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>30696</v>
+        <v>32439</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.04197382917892804</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.02446990330850393</v>
+        <v>0.02700010410191565</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.06102272522229448</v>
+        <v>0.06448781501668943</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>7</v>
@@ -4728,19 +4728,19 @@
         <v>8143</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>3216</v>
+        <v>3251</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>16184</v>
+        <v>16067</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.01798666707072806</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.007102886105364387</v>
+        <v>0.007181806729951104</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.03574793340360974</v>
+        <v>0.03548866152915096</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>27</v>
@@ -4749,19 +4749,19 @@
         <v>29257</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>19992</v>
+        <v>18557</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>41588</v>
+        <v>41888</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.03061128860834389</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.02091724987062335</v>
+        <v>0.01941645125805932</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.04351346062387849</v>
+        <v>0.04382727865126861</v>
       </c>
     </row>
     <row r="28">
@@ -4782,19 +4782,19 @@
         <v>310483</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>276824</v>
+        <v>274742</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>346081</v>
+        <v>344599</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.09107364763997111</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.08120031909948677</v>
+        <v>0.08058978405429333</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1015155930414564</v>
+        <v>0.1010807466259732</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>341</v>
@@ -4803,19 +4803,19 @@
         <v>368811</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>330215</v>
+        <v>332401</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>405300</v>
+        <v>408174</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1041037263544815</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.09320941089492513</v>
+        <v>0.0938263464817807</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1144035058637478</v>
+        <v>0.1152147732388922</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>621</v>
@@ -4824,19 +4824,19 @@
         <v>679294</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>629913</v>
+        <v>629783</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>728417</v>
+        <v>728585</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.09771387012044989</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.09061062335615327</v>
+        <v>0.09059198615141566</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1047800621496368</v>
+        <v>0.1048042511212326</v>
       </c>
     </row>
     <row r="29">
@@ -4853,19 +4853,19 @@
         <v>125158</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>103368</v>
+        <v>103781</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>150192</v>
+        <v>148928</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.03671245211610453</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.03032077972886507</v>
+        <v>0.03044187049784839</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.04405556007427106</v>
+        <v>0.0436848293080069</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>131</v>
@@ -4874,19 +4874,19 @@
         <v>140297</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>117531</v>
+        <v>119091</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>164943</v>
+        <v>166964</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.03960154595711573</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.03317528377830437</v>
+        <v>0.03361567410270089</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.0465583120717584</v>
+        <v>0.04712876694028813</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>244</v>
@@ -4895,19 +4895,19 @@
         <v>265455</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>231749</v>
+        <v>232523</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>303040</v>
+        <v>297442</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.03818475526112941</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.03333622760683243</v>
+        <v>0.03344751799930237</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.04359113679436055</v>
+        <v>0.04278597022944973</v>
       </c>
     </row>
     <row r="30">
@@ -4924,19 +4924,19 @@
         <v>17096</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>9683</v>
+        <v>10121</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>28944</v>
+        <v>28308</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.00501467786783431</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.002840258414856927</v>
+        <v>0.002968768401425885</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.008490127680070163</v>
+        <v>0.008303644444177256</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>24</v>
@@ -4945,19 +4945,19 @@
         <v>26353</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>17128</v>
+        <v>18042</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>39541</v>
+        <v>41344</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.007438638360794498</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.004834639300613969</v>
+        <v>0.0050926573693739</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.01116115873081414</v>
+        <v>0.01167009813802549</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>39</v>
@@ -4966,19 +4966,19 @@
         <v>43449</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>30933</v>
+        <v>31992</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>60002</v>
+        <v>60177</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.006249945690063386</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.004449626511070134</v>
+        <v>0.004601951306784786</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.008631097191694595</v>
+        <v>0.008656245772146067</v>
       </c>
     </row>
     <row r="31">
@@ -4998,7 +4998,7 @@
         <v>0</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>6194</v>
+        <v>6747</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.000565514563630289</v>
@@ -5007,7 +5007,7 @@
         <v>0</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.001816955755106546</v>
+        <v>0.001979052904207417</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>5</v>
@@ -5016,19 +5016,19 @@
         <v>5390</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>1960</v>
+        <v>2032</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>11628</v>
+        <v>12685</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.001521400670514127</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.0005531149111997106</v>
+        <v>0.0005736094152577881</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.00328236203658909</v>
+        <v>0.003580708645387109</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>7</v>
@@ -5037,19 +5037,19 @@
         <v>7318</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>3054</v>
+        <v>3114</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>13429</v>
+        <v>14495</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.001052641046499423</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.0004392816654131107</v>
+        <v>0.0004479064612023891</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.001931773900766764</v>
+        <v>0.002085090991245451</v>
       </c>
     </row>
     <row r="32">
@@ -5066,19 +5066,19 @@
         <v>44701</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>32263</v>
+        <v>31796</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>61773</v>
+        <v>61779</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.01311219967517498</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.009463630751314725</v>
+        <v>0.009326707845443098</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.01811974672792295</v>
+        <v>0.01812164192514459</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>26</v>
@@ -5087,19 +5087,19 @@
         <v>29805</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>18287</v>
+        <v>19366</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>42968</v>
+        <v>43050</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.008412970313812693</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.005161873622343941</v>
+        <v>0.00546635657642758</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.01212859103236718</v>
+        <v>0.01215153438752599</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>67</v>
@@ -5108,19 +5108,19 @@
         <v>74506</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>57346</v>
+        <v>55459</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>92530</v>
+        <v>93968</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.01071743835945899</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.008249041258519533</v>
+        <v>0.007977534280432245</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.01331003833180736</v>
+        <v>0.01351689510418059</v>
       </c>
     </row>
     <row r="33">
@@ -5137,19 +5137,19 @@
         <v>104389</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>84712</v>
+        <v>84432</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>126448</v>
+        <v>125416</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.03062018251525463</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.02484842642268871</v>
+        <v>0.02476630537670651</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.03709092939001605</v>
+        <v>0.03678825434007583</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>65</v>
@@ -5158,19 +5158,19 @@
         <v>68256</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>52952</v>
+        <v>53777</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>85984</v>
+        <v>87718</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.01926640310283572</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.01494666426445936</v>
+        <v>0.0151795769423697</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.02427057907886761</v>
+        <v>0.02476014726552303</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>163</v>
@@ -5179,19 +5179,19 @@
         <v>172644</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>149196</v>
+        <v>147413</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>202590</v>
+        <v>200122</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.02483421429936161</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.02146135700600769</v>
+        <v>0.02120481064301428</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.02914184078416703</v>
+        <v>0.02878677436581345</v>
       </c>
     </row>
     <row r="34">
@@ -5452,19 +5452,19 @@
         <v>93638</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>77138</v>
+        <v>77571</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>114739</v>
+        <v>113303</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.08301286934103108</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.06838533285104677</v>
+        <v>0.06876859096320112</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1017191327898799</v>
+        <v>0.1004463909641582</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>113</v>
@@ -5473,19 +5473,19 @@
         <v>133684</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>111798</v>
+        <v>110398</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>159996</v>
+        <v>158692</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1061357758766916</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.0887597001401884</v>
+        <v>0.08764832026913764</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.12702535495059</v>
+        <v>0.1259897837244196</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>209</v>
@@ -5494,19 +5494,19 @@
         <v>227323</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>197145</v>
+        <v>198948</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>258873</v>
+        <v>257311</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.09521140272029172</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.08257174064595656</v>
+        <v>0.08332683533231497</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1084257034117654</v>
+        <v>0.1077716137736912</v>
       </c>
     </row>
     <row r="5">
@@ -5523,19 +5523,19 @@
         <v>49442</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>37130</v>
+        <v>36501</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>65016</v>
+        <v>64131</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.04383181032010423</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.03291686361315962</v>
+        <v>0.03235873797292363</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.05763854445269579</v>
+        <v>0.05685377070902087</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>36</v>
@@ -5544,19 +5544,19 @@
         <v>39384</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>27703</v>
+        <v>28361</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>52525</v>
+        <v>53352</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.03126783189390237</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.02199411169579263</v>
+        <v>0.02251657432187802</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.04170083665765802</v>
+        <v>0.04235791149888435</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>83</v>
@@ -5565,19 +5565,19 @@
         <v>88826</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>70257</v>
+        <v>72805</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>108838</v>
+        <v>109215</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.03720365957391796</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.02942639462901021</v>
+        <v>0.03049339812522957</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.04558537228515942</v>
+        <v>0.04574353926784867</v>
       </c>
     </row>
     <row r="6">
@@ -5597,7 +5597,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>6371</v>
+        <v>6471</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.001869422051443289</v>
@@ -5606,7 +5606,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.005648064684798429</v>
+        <v>0.005736425568788751</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>8</v>
@@ -5615,19 +5615,19 @@
         <v>8415</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>3713</v>
+        <v>3904</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>15572</v>
+        <v>16724</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.006681267133383993</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.002947515130887273</v>
+        <v>0.003099443534409224</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.0123631667778596</v>
+        <v>0.0132779198856223</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>10</v>
@@ -5636,19 +5636,19 @@
         <v>10524</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>5158</v>
+        <v>4988</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>19284</v>
+        <v>18876</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.004407920088329808</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.002160490148391399</v>
+        <v>0.002089371354751003</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.008076691027427448</v>
+        <v>0.007905777490313685</v>
       </c>
     </row>
     <row r="7">
@@ -5668,7 +5668,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>8301</v>
+        <v>9861</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.001466861630851814</v>
@@ -5677,7 +5677,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.007359408107685276</v>
+        <v>0.008742321612397743</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>2</v>
@@ -5689,7 +5689,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>8249</v>
+        <v>6201</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.001622059807849452</v>
@@ -5698,7 +5698,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.006548894927215172</v>
+        <v>0.00492342589662923</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>3</v>
@@ -5710,16 +5710,16 @@
         <v>998</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>12027</v>
+        <v>10916</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.001548736724693774</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.0004177993740371058</v>
+        <v>0.000418035837504191</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.005037435191273157</v>
+        <v>0.004571888240091238</v>
       </c>
     </row>
     <row r="8">
@@ -5739,7 +5739,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>9898</v>
+        <v>9720</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.00249403259674503</v>
@@ -5748,7 +5748,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.008774635923842769</v>
+        <v>0.008617478933252772</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>3</v>
@@ -5757,19 +5757,19 @@
         <v>3016</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>942</v>
+        <v>950</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>8273</v>
+        <v>9020</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.00239415464950175</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.0007477053725074686</v>
+        <v>0.000754504304697411</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.006567911256889765</v>
+        <v>0.007160946266246932</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>5</v>
@@ -5778,19 +5778,19 @@
         <v>5829</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2052</v>
+        <v>2001</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>14784</v>
+        <v>13760</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.002441341795464482</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.000859648649643755</v>
+        <v>0.0008380253814974465</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.006191894099907295</v>
+        <v>0.005763187008529455</v>
       </c>
     </row>
     <row r="9">
@@ -5807,19 +5807,19 @@
         <v>15352</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>8735</v>
+        <v>8700</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>26790</v>
+        <v>25518</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.01360975200216159</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.007744217689519612</v>
+        <v>0.007712576717342471</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.02375004501930187</v>
+        <v>0.02262223063067583</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>23</v>
@@ -5828,19 +5828,19 @@
         <v>25065</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>16052</v>
+        <v>16516</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>37750</v>
+        <v>38502</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.01989991118859036</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.01274438618376206</v>
+        <v>0.01311245473386846</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.02997053739342487</v>
+        <v>0.03056769934510318</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>38</v>
@@ -5849,19 +5849,19 @@
         <v>40417</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>29301</v>
+        <v>28956</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>55515</v>
+        <v>55600</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.01692813746024311</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.01227249405113711</v>
+        <v>0.01212806334313373</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.02325171824946896</v>
+        <v>0.0232875956875699</v>
       </c>
     </row>
     <row r="10">
@@ -5882,19 +5882,19 @@
         <v>83306</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>66387</v>
+        <v>67383</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>99540</v>
+        <v>100769</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.09166307710431246</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.07304715635913839</v>
+        <v>0.07414251125833368</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1095257732323604</v>
+        <v>0.1108788084715388</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>102</v>
@@ -5903,19 +5903,19 @@
         <v>123283</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>102308</v>
+        <v>101050</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>147908</v>
+        <v>144489</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.122490266037832</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1016500108635886</v>
+        <v>0.1003996616486315</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1469568387871069</v>
+        <v>0.1435597941475397</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>189</v>
@@ -5924,19 +5924,19 @@
         <v>206589</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>179037</v>
+        <v>178636</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>237277</v>
+        <v>236719</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1078625251818909</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.09347744369795458</v>
+        <v>0.09326809265696405</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1238848081991683</v>
+        <v>0.1235934444730723</v>
       </c>
     </row>
     <row r="11">
@@ -5953,19 +5953,19 @@
         <v>21713</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>13194</v>
+        <v>13418</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>33260</v>
+        <v>32449</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.02389153052932814</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.01451743759941099</v>
+        <v>0.01476361632293462</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.03659688606428534</v>
+        <v>0.03570383008751281</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>26</v>
@@ -5974,19 +5974,19 @@
         <v>29094</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>19483</v>
+        <v>19855</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>43211</v>
+        <v>42526</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.02890726916332852</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.01935742034995197</v>
+        <v>0.0197274783270699</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.04293336267907807</v>
+        <v>0.04225240331591531</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>48</v>
@@ -5995,19 +5995,19 @@
         <v>50808</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>37269</v>
+        <v>38202</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>65532</v>
+        <v>66951</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.02652726217996349</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.01945883021692997</v>
+        <v>0.01994552950828974</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.03421482242784108</v>
+        <v>0.03495597899965201</v>
       </c>
     </row>
     <row r="12">
@@ -6024,19 +6024,19 @@
         <v>10624</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>5477</v>
+        <v>5166</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>19409</v>
+        <v>19773</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.01168939841474871</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.006026233915792788</v>
+        <v>0.005684330139247454</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.02135600823494607</v>
+        <v>0.0217570580222463</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>7</v>
@@ -6045,19 +6045,19 @@
         <v>6872</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>3021</v>
+        <v>2875</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>13496</v>
+        <v>13202</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.006827349669989964</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.003001997441219434</v>
+        <v>0.002856794173451041</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.01340929689888258</v>
+        <v>0.01311740364094375</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>17</v>
@@ -6066,19 +6066,19 @@
         <v>17495</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>10489</v>
+        <v>10816</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>28379</v>
+        <v>27659</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.009134429605843361</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.005476612074627538</v>
+        <v>0.005646906490769355</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.01481725274255607</v>
+        <v>0.0144411158335555</v>
       </c>
     </row>
     <row r="13">
@@ -6098,7 +6098,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>5446</v>
+        <v>5434</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.001197146924230197</v>
@@ -6107,7 +6107,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.005992449662897559</v>
+        <v>0.005979495939236893</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>1</v>
@@ -6119,7 +6119,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>7939</v>
+        <v>7215</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.001441230664322047</v>
@@ -6128,7 +6128,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.007887818525226277</v>
+        <v>0.007169078790056021</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>2</v>
@@ -6140,7 +6140,7 @@
         <v>0</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>8348</v>
+        <v>9756</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.001325411031694752</v>
@@ -6149,7 +6149,7 @@
         <v>0</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.004358332613172694</v>
+        <v>0.005093970106262768</v>
       </c>
     </row>
     <row r="14">
@@ -6169,7 +6169,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>5055</v>
+        <v>6267</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.001101819906182782</v>
@@ -6178,7 +6178,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.005562331245597282</v>
+        <v>0.006895803993148713</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1</v>
@@ -6190,7 +6190,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>9789</v>
+        <v>9262</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.00183647212616359</v>
@@ -6199,7 +6199,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.009725604720686256</v>
+        <v>0.009202828695046125</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2</v>
@@ -6211,7 +6211,7 @@
         <v>0</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>10665</v>
+        <v>11603</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.001487873935251792</v>
@@ -6220,7 +6220,7 @@
         <v>0</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.00556843223744343</v>
+        <v>0.00605793944154652</v>
       </c>
     </row>
     <row r="15">
@@ -6237,19 +6237,19 @@
         <v>11281</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>6277</v>
+        <v>5830</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>19589</v>
+        <v>19781</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.01241308092780406</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.006906636825679828</v>
+        <v>0.006414484382259964</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.02155469604646171</v>
+        <v>0.02176511265469177</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>18</v>
@@ -6258,19 +6258,19 @@
         <v>21681</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>12808</v>
+        <v>12793</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>33723</v>
+        <v>33340</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.02154197167033508</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.01272584654475968</v>
+        <v>0.01271114934144422</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.03350577895250223</v>
+        <v>0.03312585852897969</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>30</v>
@@ -6279,19 +6279,19 @@
         <v>32963</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>21523</v>
+        <v>22573</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>46526</v>
+        <v>46083</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.01721024202829996</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.01123744662357418</v>
+        <v>0.01178542522168559</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.02429165234946725</v>
+        <v>0.02406065967222103</v>
       </c>
     </row>
     <row r="16">
@@ -6312,19 +6312,19 @@
         <v>78773</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>63779</v>
+        <v>63387</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>96556</v>
+        <v>96514</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.09562679716981114</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.07742412160715333</v>
+        <v>0.07694817281782695</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.117214379275056</v>
+        <v>0.1171634439569655</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>56</v>
@@ -6333,19 +6333,19 @@
         <v>70287</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>53892</v>
+        <v>54929</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>90611</v>
+        <v>89597</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.09115679670944336</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.06989383819922788</v>
+        <v>0.07123778292248453</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1175152839815496</v>
+        <v>0.1161996356656769</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>139</v>
@@ -6354,19 +6354,19 @@
         <v>149061</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>124124</v>
+        <v>127951</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>172387</v>
+        <v>176256</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.0934656522927832</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.07782959470036731</v>
+        <v>0.08022916233771175</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1080917243292222</v>
+        <v>0.1105182340357612</v>
       </c>
     </row>
     <row r="17">
@@ -6383,19 +6383,19 @@
         <v>21856</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>13516</v>
+        <v>13435</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>32943</v>
+        <v>32866</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.02653150191262872</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.01640773741588657</v>
+        <v>0.0163095331255869</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.0399907355421491</v>
+        <v>0.03989816833945185</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>19</v>
@@ -6404,19 +6404,19 @@
         <v>20604</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>12652</v>
+        <v>12455</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>30463</v>
+        <v>31607</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.0267210941674866</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.01640864054382842</v>
+        <v>0.01615249223656154</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.0395078800373062</v>
+        <v>0.04099178799583946</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>40</v>
@@ -6425,19 +6425,19 @@
         <v>42459</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>30457</v>
+        <v>29909</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>57025</v>
+        <v>57091</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.02662316551175877</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.01909750685607977</v>
+        <v>0.01875359275177028</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.03575645874453355</v>
+        <v>0.03579794918972503</v>
       </c>
     </row>
     <row r="18">
@@ -6454,19 +6454,19 @@
         <v>3445</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>977</v>
+        <v>987</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>10823</v>
+        <v>10086</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.00418216557195198</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.001185588352202933</v>
+        <v>0.001197575731813979</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.01313865119688973</v>
+        <v>0.01224421636883789</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>4</v>
@@ -6475,19 +6475,19 @@
         <v>4653</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>1637</v>
+        <v>1099</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>13805</v>
+        <v>12069</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.006034525402521243</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.00212242740828575</v>
+        <v>0.001425194178426997</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.01790430753010967</v>
+        <v>0.01565271726925503</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>7</v>
@@ -6496,19 +6496,19 @@
         <v>8098</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>3180</v>
+        <v>3292</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>16747</v>
+        <v>17407</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.005077739967019882</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.001993691043438536</v>
+        <v>0.002063888803548481</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.01050116847482102</v>
+        <v>0.01091497906078596</v>
       </c>
     </row>
     <row r="19">
@@ -6525,19 +6525,19 @@
         <v>4490</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>1059</v>
+        <v>1571</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>11921</v>
+        <v>11595</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.005450918008678574</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.00128549383291855</v>
+        <v>0.001906843009172497</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.01447188256947017</v>
+        <v>0.01407589951214662</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>3</v>
@@ -6546,19 +6546,19 @@
         <v>2782</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>8007</v>
+        <v>7460</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.003608296539435535</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.001147057192244971</v>
+        <v>0.001147187546116014</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.01038469588582588</v>
+        <v>0.00967465480533267</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>7</v>
@@ -6567,19 +6567,19 @@
         <v>7272</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>3035</v>
+        <v>2986</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>14700</v>
+        <v>14581</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.004560051892698654</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.001903059540861717</v>
+        <v>0.001872064105129914</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.009217515832807993</v>
+        <v>0.009142825096657582</v>
       </c>
     </row>
     <row r="20">
@@ -6596,19 +6596,19 @@
         <v>6095</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>2909</v>
+        <v>2103</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>12549</v>
+        <v>12249</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.007399336715807719</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.00353130234155588</v>
+        <v>0.002553128670353117</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.01523356586661635</v>
+        <v>0.01486966982450235</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>6</v>
@@ -6617,19 +6617,19 @@
         <v>6158</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1981</v>
+        <v>2605</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>12537</v>
+        <v>13171</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.007986589210128481</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.002569499351177708</v>
+        <v>0.003378099229926611</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.01625933392837254</v>
+        <v>0.01708229701574169</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>12</v>
@@ -6638,19 +6638,19 @@
         <v>12253</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>6747</v>
+        <v>6642</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>20791</v>
+        <v>20866</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.00768326011377506</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.004230683537556217</v>
+        <v>0.00416476271871155</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.0130365707137825</v>
+        <v>0.01308393508277387</v>
       </c>
     </row>
     <row r="21">
@@ -6667,19 +6667,19 @@
         <v>15816</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>9086</v>
+        <v>9186</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>26023</v>
+        <v>26234</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.01919973432744211</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.01102974303443526</v>
+        <v>0.01115083572391205</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.03159110141778025</v>
+        <v>0.03184714227163073</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>9</v>
@@ -6688,19 +6688,19 @@
         <v>9528</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>4460</v>
+        <v>5073</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>16992</v>
+        <v>18389</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.01235654231192072</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.005784361613825511</v>
+        <v>0.006578885056013337</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.0220376877930743</v>
+        <v>0.0238495943030052</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>24</v>
@@ -6709,19 +6709,19 @@
         <v>25344</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>16415</v>
+        <v>16675</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>36945</v>
+        <v>37152</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.01589120460848862</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.01029252162288217</v>
+        <v>0.01045558630440953</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.0231655599232011</v>
+        <v>0.0232954474548391</v>
       </c>
     </row>
     <row r="22">
@@ -6742,19 +6742,19 @@
         <v>48612</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>36627</v>
+        <v>37450</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>65164</v>
+        <v>63430</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.09593859119824096</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.07228497663600157</v>
+        <v>0.07390950557196201</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1286043560738264</v>
+        <v>0.1251813887435166</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>41</v>
@@ -6763,19 +6763,19 @@
         <v>51376</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>38487</v>
+        <v>37832</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>67779</v>
+        <v>68397</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1049138591559525</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.07859397845136408</v>
+        <v>0.07725505068161996</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1384090606271514</v>
+        <v>0.139672598983136</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>90</v>
@@ -6784,19 +6784,19 @@
         <v>99988</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>79323</v>
+        <v>81903</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>119857</v>
+        <v>122626</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1003496445598876</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.07960927758469062</v>
+        <v>0.08219872393472269</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1202900139991066</v>
+        <v>0.1230689544881231</v>
       </c>
     </row>
     <row r="23">
@@ -6813,19 +6813,19 @@
         <v>24889</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>16415</v>
+        <v>16160</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>36957</v>
+        <v>35504</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.04912007167934841</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.0323950479189529</v>
+        <v>0.03189327154392781</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.07293712715411806</v>
+        <v>0.070069145898614</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>15</v>
@@ -6834,19 +6834,19 @@
         <v>16579</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>9973</v>
+        <v>9296</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>26851</v>
+        <v>26715</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.03385539071387545</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.02036567035485973</v>
+        <v>0.01898260149737326</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.05483277402212767</v>
+        <v>0.05455497082037958</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>38</v>
@@ -6855,19 +6855,19 @@
         <v>41468</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>29020</v>
+        <v>29833</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>55919</v>
+        <v>56379</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.04161797563001991</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.02912462960088899</v>
+        <v>0.02994095436459285</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.05612113368536537</v>
+        <v>0.05658304209178043</v>
       </c>
     </row>
     <row r="24">
@@ -6884,19 +6884,19 @@
         <v>4211</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1134</v>
+        <v>1053</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>9653</v>
+        <v>10087</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.008310303153640616</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.002238459591172625</v>
+        <v>0.002078576746324269</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.01904972798988203</v>
+        <v>0.01990654133485173</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>3</v>
@@ -6905,19 +6905,19 @@
         <v>2742</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>7130</v>
+        <v>7301</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.005599961236636257</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.001795781680183874</v>
+        <v>0.001789944726394775</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.01455919956159261</v>
+        <v>0.01491004465595212</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>7</v>
@@ -6926,19 +6926,19 @@
         <v>6953</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>3090</v>
+        <v>2918</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>14835</v>
+        <v>13971</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.006978257928858033</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.003101365532008559</v>
+        <v>0.002928905034669605</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.01488819233216335</v>
+        <v>0.01402117876660903</v>
       </c>
     </row>
     <row r="25">
@@ -6955,19 +6955,19 @@
         <v>5346</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>2050</v>
+        <v>2064</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>12467</v>
+        <v>13073</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.01055074859474972</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.00404526137752476</v>
+        <v>0.004073696650929875</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.02460497895229861</v>
+        <v>0.02580057408026043</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>5</v>
@@ -6976,19 +6976,19 @@
         <v>5413</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>1899</v>
+        <v>1895</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>12523</v>
+        <v>12922</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.01105459226523999</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.003877460958320143</v>
+        <v>0.003868783689746355</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.0255725700020992</v>
+        <v>0.02638796451500284</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>10</v>
@@ -6997,19 +6997,19 @@
         <v>10759</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>5435</v>
+        <v>5816</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>19989</v>
+        <v>20304</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.01079837143196551</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.005454179662439581</v>
+        <v>0.005837060718209501</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.02006105923718267</v>
+        <v>0.02037730534817604</v>
       </c>
     </row>
     <row r="26">
@@ -7026,19 +7026,19 @@
         <v>5777</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1967</v>
+        <v>1941</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>12689</v>
+        <v>12536</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.01140066856485875</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.0038827666380494</v>
+        <v>0.003831586539776197</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.02504172718936411</v>
+        <v>0.0247403950914709</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>8</v>
@@ -7047,19 +7047,19 @@
         <v>8073</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3878</v>
+        <v>3915</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>16134</v>
+        <v>15565</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.01648652450849788</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.007918486455694861</v>
+        <v>0.007994371563499442</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.03294662456364084</v>
+        <v>0.03178406755981739</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>13</v>
@@ -7068,19 +7068,19 @@
         <v>13850</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>7837</v>
+        <v>7805</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>23050</v>
+        <v>24362</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.01390020195625622</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.007865218326812719</v>
+        <v>0.007833231706798933</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.02313321608370595</v>
+        <v>0.02445032566497962</v>
       </c>
     </row>
     <row r="27">
@@ -7097,19 +7097,19 @@
         <v>10821</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>5775</v>
+        <v>5865</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>18245</v>
+        <v>18533</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.02135619053056132</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.01139693559506969</v>
+        <v>0.01157448268717091</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.03600668617983424</v>
+        <v>0.03657560218168662</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>7</v>
@@ -7118,19 +7118,19 @@
         <v>7511</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>3328</v>
+        <v>3275</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>15494</v>
+        <v>14425</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.01533716905650949</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.006795995721416798</v>
+        <v>0.006687232623259998</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.03163999612533682</v>
+        <v>0.02945597970005729</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>19</v>
@@ -7139,19 +7139,19 @@
         <v>18332</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>11109</v>
+        <v>11207</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>28868</v>
+        <v>27767</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.01839803651978023</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.01114936463169506</v>
+        <v>0.0112478332337975</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.02897266607920735</v>
+        <v>0.02786689319754831</v>
       </c>
     </row>
     <row r="28">
@@ -7172,19 +7172,19 @@
         <v>304330</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>272908</v>
+        <v>271328</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>338628</v>
+        <v>338681</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.09037840552661769</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.08104702556790701</v>
+        <v>0.08057784086414697</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1005640585175495</v>
+        <v>0.1005800425548834</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>312</v>
@@ -7193,19 +7193,19 @@
         <v>378631</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>342611</v>
+        <v>338120</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>421189</v>
+        <v>420624</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1073585152119276</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.09714533920105996</v>
+        <v>0.09587180780151365</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1194255695685847</v>
+        <v>0.1192652684454872</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>627</v>
@@ -7214,19 +7214,19 @@
         <v>682961</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>633067</v>
+        <v>633497</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>736807</v>
+        <v>733110</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.09906489710881454</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.09182769515295049</v>
+        <v>0.09189010615557863</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1068754206348545</v>
+        <v>0.1063391161853337</v>
       </c>
     </row>
     <row r="29">
@@ -7243,19 +7243,19 @@
         <v>117900</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>97491</v>
+        <v>98300</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>140212</v>
+        <v>140114</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.03501343904756594</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.02895256028343449</v>
+        <v>0.02919262909991847</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.0416394482341043</v>
+        <v>0.04161036162219234</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>96</v>
@@ -7264,19 +7264,19 @@
         <v>105661</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>87513</v>
+        <v>85908</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>128338</v>
+        <v>128647</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.02995941096956014</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.02481374617919968</v>
+        <v>0.02435881253009191</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.03638946887398281</v>
+        <v>0.0364769764306388</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>209</v>
@@ -7285,19 +7285,19 @@
         <v>223561</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>196448</v>
+        <v>196071</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>254551</v>
+        <v>256712</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.03242795678806293</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.02849515834198031</v>
+        <v>0.02844049651888768</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.03692309201342208</v>
+        <v>0.03723654698947013</v>
       </c>
     </row>
     <row r="30">
@@ -7314,19 +7314,19 @@
         <v>20388</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>13116</v>
+        <v>12813</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>32964</v>
+        <v>31975</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.006054809925737974</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.003895097048638912</v>
+        <v>0.003805117678550626</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.009789440714372702</v>
+        <v>0.009495640832195033</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>22</v>
@@ -7335,19 +7335,19 @@
         <v>22682</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>14558</v>
+        <v>14729</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>33610</v>
+        <v>34116</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.006431419633409729</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.004127797595038093</v>
+        <v>0.004176342863864258</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.009530014373356691</v>
+        <v>0.009673467188169646</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>41</v>
@@ -7356,19 +7356,19 @@
         <v>43071</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>30951</v>
+        <v>30757</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>57782</v>
+        <v>57431</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.006247471640891353</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.004489498599823535</v>
+        <v>0.00446139850596558</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.008381404081383076</v>
+        <v>0.008330490276350732</v>
       </c>
     </row>
     <row r="31">
@@ -7385,19 +7385,19 @@
         <v>12579</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>6455</v>
+        <v>6212</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>21737</v>
+        <v>22569</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.003735633116559679</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.001916934093506377</v>
+        <v>0.001844884441412331</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.006455248390071983</v>
+        <v>0.006702457154434326</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>11</v>
@@ -7406,19 +7406,19 @@
         <v>11689</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>6189</v>
+        <v>6167</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>20891</v>
+        <v>20373</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.003314417200342892</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.001754851088582528</v>
+        <v>0.00174856427435691</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.005923534612031448</v>
+        <v>0.005776602382218639</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>22</v>
@@ -7427,19 +7427,19 @@
         <v>24268</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>15972</v>
+        <v>16439</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>36363</v>
+        <v>36401</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.003520152264061424</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.00231684345894069</v>
+        <v>0.002384483817765986</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.005274513441703671</v>
+        <v>0.005280007074943442</v>
       </c>
     </row>
     <row r="32">
@@ -7456,19 +7456,19 @@
         <v>15687</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>8550</v>
+        <v>8945</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>26039</v>
+        <v>26090</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.004658541728097852</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.002539091257991026</v>
+        <v>0.002656407293872948</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.007732813350989249</v>
+        <v>0.00774804814741926</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>18</v>
@@ -7477,19 +7477,19 @@
         <v>19095</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>11659</v>
+        <v>11223</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>29190</v>
+        <v>29087</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.005414406420648954</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.003305800281704369</v>
+        <v>0.003182340745872404</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.008276702292222656</v>
+        <v>0.008247395182800441</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>32</v>
@@ -7498,19 +7498,19 @@
         <v>34782</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>25100</v>
+        <v>23866</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>51277</v>
+        <v>48646</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.005045218399262426</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.003640867113011395</v>
+        <v>0.003461845088584068</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.007437891025482552</v>
+        <v>0.007056157055687342</v>
       </c>
     </row>
     <row r="33">
@@ -7527,19 +7527,19 @@
         <v>53270</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>41291</v>
+        <v>40649</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>69856</v>
+        <v>68478</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.01581995082379143</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.01226254175221126</v>
+        <v>0.0120716711180607</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.02074549321105336</v>
+        <v>0.02033633101139988</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>57</v>
@@ -7548,19 +7548,19 @@
         <v>63785</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>47862</v>
+        <v>49699</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>80066</v>
+        <v>82108</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.01808578369515946</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.01357087771877036</v>
+        <v>0.01409177188866975</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.02270227933972207</v>
+        <v>0.0232813423948402</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>111</v>
@@ -7569,19 +7569,19 @@
         <v>117055</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>96305</v>
+        <v>97951</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>142855</v>
+        <v>140334</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.01697907985938482</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.01396931364225631</v>
+        <v>0.01420793847307219</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.02072144925845458</v>
+        <v>0.02035575538798185</v>
       </c>
     </row>
     <row r="34">
@@ -7842,19 +7842,19 @@
         <v>42535</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>33287</v>
+        <v>32367</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>55824</v>
+        <v>55287</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.08528550671780125</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.0667425238017135</v>
+        <v>0.06489838388723768</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1119309623136308</v>
+        <v>0.1108533497819789</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>188</v>
@@ -7863,19 +7863,19 @@
         <v>100332</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>87848</v>
+        <v>86972</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>115020</v>
+        <v>115690</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1608963804187509</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1408776696455918</v>
+        <v>0.1394716494977573</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1844518436803292</v>
+        <v>0.1855249775909506</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>244</v>
@@ -7884,19 +7884,19 @@
         <v>142867</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>125442</v>
+        <v>126422</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>160475</v>
+        <v>164004</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.127296221471925</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1117699400652263</v>
+        <v>0.112643309316878</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1429850075258466</v>
+        <v>0.146129210626061</v>
       </c>
     </row>
     <row r="5">
@@ -7913,19 +7913,19 @@
         <v>48531</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>36872</v>
+        <v>37415</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>61990</v>
+        <v>62813</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.09730743370640903</v>
+        <v>0.09730743370640901</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.07393035325465389</v>
+        <v>0.07501976749428617</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1242930730041706</v>
+        <v>0.125944301220561</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>97</v>
@@ -7934,19 +7934,19 @@
         <v>64699</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>53216</v>
+        <v>53694</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>78779</v>
+        <v>79622</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1037539440837059</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.08534019589239075</v>
+        <v>0.08610538270268109</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1263337997710074</v>
+        <v>0.1276860875563225</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>154</v>
@@ -7955,19 +7955,19 @@
         <v>113230</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>95465</v>
+        <v>96180</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>132093</v>
+        <v>131116</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1008892268449363</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.0850601790381673</v>
+        <v>0.08569711373482652</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1176967841675651</v>
+        <v>0.1168254401057423</v>
       </c>
     </row>
     <row r="6">
@@ -7987,7 +7987,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>4719</v>
+        <v>5594</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.0029473221554117</v>
@@ -7996,7 +7996,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.009460954146937619</v>
+        <v>0.01121556025965333</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>10</v>
@@ -8005,19 +8005,19 @@
         <v>8064</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>3780</v>
+        <v>4215</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>14197</v>
+        <v>15001</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.01293218748504334</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.006061070172887692</v>
+        <v>0.006758852074884107</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.02276670442180512</v>
+        <v>0.02405565788533973</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>12</v>
@@ -8026,19 +8026,19 @@
         <v>9534</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>5024</v>
+        <v>4772</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>17923</v>
+        <v>17111</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.008495086765043845</v>
+        <v>0.008495086765043843</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.004476756584474336</v>
+        <v>0.004251836115428708</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.01596918088758952</v>
+        <v>0.01524602935860574</v>
       </c>
     </row>
     <row r="7">
@@ -8058,7 +8058,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>7181</v>
+        <v>8118</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.004394513130351194</v>
@@ -8067,7 +8067,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.0143983751463077</v>
+        <v>0.01627741531398195</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>7</v>
@@ -8076,19 +8076,19 @@
         <v>4387</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>1906</v>
+        <v>1878</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>9104</v>
+        <v>8297</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.007035141287682747</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.003056636228547697</v>
+        <v>0.003012370385500141</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.01460027066926941</v>
+        <v>0.01330585703645577</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>9</v>
@@ -8097,19 +8097,19 @@
         <v>6579</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>2981</v>
+        <v>2891</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>12341</v>
+        <v>11767</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.005861692001053359</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.002656458735355052</v>
+        <v>0.00257554159901959</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.01099620280598197</v>
+        <v>0.01048483034728637</v>
       </c>
     </row>
     <row r="8">
@@ -8126,19 +8126,19 @@
         <v>6501</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>2286</v>
+        <v>2442</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>16656</v>
+        <v>16463</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.01303475919643837</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.004584339402689039</v>
+        <v>0.004896321557638515</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.0333964288788109</v>
+        <v>0.03300993514355745</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>10</v>
@@ -8147,19 +8147,19 @@
         <v>7098</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>3472</v>
+        <v>3693</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>12501</v>
+        <v>12742</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.01138292838299123</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.00556793990834533</v>
+        <v>0.005922478674633774</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.02004649078698487</v>
+        <v>0.02043322631958059</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>15</v>
@@ -8168,19 +8168,19 @@
         <v>13599</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>7842</v>
+        <v>7583</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>23686</v>
+        <v>24293</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.01211697330495054</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.006987457949586563</v>
+        <v>0.006756745953033093</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.02110470335287847</v>
+        <v>0.0216457221813299</v>
       </c>
     </row>
     <row r="9">
@@ -8197,19 +8197,19 @@
         <v>25775</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>16194</v>
+        <v>17224</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>38364</v>
+        <v>39880</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.05167965294723192</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.03247000517488544</v>
+        <v>0.03453591167831211</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.07692265565554786</v>
+        <v>0.07996166803171119</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>45</v>
@@ -8218,19 +8218,19 @@
         <v>30936</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>23196</v>
+        <v>21622</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>42095</v>
+        <v>42406</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.04960992083533529</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.03719869893941941</v>
+        <v>0.03467429390471016</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.06750489235406328</v>
+        <v>0.06800452529766589</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>69</v>
@@ -8239,19 +8239,19 @@
         <v>56710</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>43268</v>
+        <v>43977</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>71355</v>
+        <v>72331</v>
       </c>
       <c r="U9" s="6" t="n">
-        <v>0.05052967383557344</v>
+        <v>0.05052967383557345</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.03855214530512077</v>
+        <v>0.03918358110453164</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.0635780777670068</v>
+        <v>0.06444736470314773</v>
       </c>
     </row>
     <row r="10">
@@ -8272,19 +8272,19 @@
         <v>134628</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>115951</v>
+        <v>116345</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>154318</v>
+        <v>154700</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1402178426197228</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1207646783293797</v>
+        <v>0.1211752014893475</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1607251678162988</v>
+        <v>0.1611229421898516</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>374</v>
@@ -8293,19 +8293,19 @@
         <v>199695</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>180098</v>
+        <v>179766</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>220576</v>
+        <v>220198</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1789622729780123</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1614003833221587</v>
+        <v>0.1611022686351528</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1976751767264795</v>
+        <v>0.1973367489506164</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>576</v>
@@ -8314,19 +8314,19 @@
         <v>334323</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>306261</v>
+        <v>308468</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>361281</v>
+        <v>362919</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1610431016361374</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1475255312443689</v>
+        <v>0.1485888736487676</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1740286790465853</v>
+        <v>0.1748177177625285</v>
       </c>
     </row>
     <row r="11">
@@ -8343,19 +8343,19 @@
         <v>54591</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>41719</v>
+        <v>40378</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>71365</v>
+        <v>70818</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.05685777456438414</v>
+        <v>0.05685777456438415</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.0434513614692136</v>
+        <v>0.04205400604593632</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.07432844073333093</v>
+        <v>0.07375849478394535</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>126</v>
@@ -8364,19 +8364,19 @@
         <v>72758</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>61530</v>
+        <v>61107</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>87388</v>
+        <v>86676</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.06520439029623726</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.05514193768475343</v>
+        <v>0.05476318617161532</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.07831562199125673</v>
+        <v>0.07767756236371159</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>188</v>
@@ -8385,19 +8385,19 @@
         <v>127350</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>110289</v>
+        <v>111185</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>149096</v>
+        <v>147944</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.06134410803009565</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.05312594793134288</v>
+        <v>0.05355789802916238</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.07181957913527923</v>
+        <v>0.07126461072943019</v>
       </c>
     </row>
     <row r="12">
@@ -8414,19 +8414,19 @@
         <v>8778</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>3818</v>
+        <v>3237</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>23018</v>
+        <v>18941</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.009142041446992434</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.003976802184845521</v>
+        <v>0.003370893002963506</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.02397346992558694</v>
+        <v>0.01972714165054076</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>22</v>
@@ -8435,19 +8435,19 @@
         <v>15918</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>9501</v>
+        <v>9962</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>23906</v>
+        <v>23248</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.01426501998045287</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.008514292398701523</v>
+        <v>0.008928046372242589</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.02142421566493271</v>
+        <v>0.0208344011735231</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>29</v>
@@ -8456,19 +8456,19 @@
         <v>24695</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>16789</v>
+        <v>16503</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>36717</v>
+        <v>37349</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.01189565929369332</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.008087297687116995</v>
+        <v>0.007949546998591678</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.01768654800841028</v>
+        <v>0.01799084838237548</v>
       </c>
     </row>
     <row r="13">
@@ -8485,19 +8485,19 @@
         <v>13117</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>6608</v>
+        <v>6362</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>25036</v>
+        <v>24766</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01366114497746803</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.006882705616366285</v>
+        <v>0.006626631932699981</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.0260752518417802</v>
+        <v>0.02579385864601957</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>19</v>
@@ -8506,19 +8506,19 @@
         <v>15893</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>9971</v>
+        <v>9670</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>25173</v>
+        <v>26798</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01424304385934257</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.008935904806666364</v>
+        <v>0.008665670537429993</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.02255964139692554</v>
+        <v>0.02401568368804759</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>28</v>
@@ -8527,19 +8527,19 @@
         <v>29010</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>19308</v>
+        <v>18647</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>43362</v>
+        <v>43197</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01397391754437213</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.009300663860475877</v>
+        <v>0.008982170664599956</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02088740915844054</v>
+        <v>0.02080778554187241</v>
       </c>
     </row>
     <row r="14">
@@ -8556,19 +8556,19 @@
         <v>11769</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>5916</v>
+        <v>6203</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>21445</v>
+        <v>21658</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.0122580207965483</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.006161512687003426</v>
+        <v>0.006460351133098349</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.02233564298381858</v>
+        <v>0.02255732411726923</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>25</v>
@@ -8577,19 +8577,19 @@
         <v>19545</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>12953</v>
+        <v>13034</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>28886</v>
+        <v>29288</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.01751576504910658</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.01160795278751234</v>
+        <v>0.01168064058960973</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.02588693386695272</v>
+        <v>0.02624711018869622</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>36</v>
@@ -8598,19 +8598,19 @@
         <v>31314</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>21953</v>
+        <v>20879</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>43172</v>
+        <v>42095</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.01508407566144232</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.0105749198607501</v>
+        <v>0.01005727032953292</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.02079568777899761</v>
+        <v>0.02027701848064337</v>
       </c>
     </row>
     <row r="15">
@@ -8627,19 +8627,19 @@
         <v>49919</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>38094</v>
+        <v>37885</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>64961</v>
+        <v>64428</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.05199164518820363</v>
+        <v>0.05199164518820362</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.0396754061688019</v>
+        <v>0.03945783385734501</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.06765763776888312</v>
+        <v>0.06710320068371509</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>103</v>
@@ -8648,19 +8648,19 @@
         <v>65975</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>54071</v>
+        <v>54546</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>79272</v>
+        <v>78962</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.05912568023303223</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.04845737284702579</v>
+        <v>0.04888297238601608</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.07104209388538428</v>
+        <v>0.07076433627922639</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>157</v>
@@ -8669,19 +8669,19 @@
         <v>115894</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>99444</v>
+        <v>98335</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>136946</v>
+        <v>136515</v>
       </c>
       <c r="U15" s="6" t="n">
-        <v>0.0558262125380614</v>
+        <v>0.05582621253806139</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.04790198004913492</v>
+        <v>0.04736762460236104</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.06596663103587877</v>
+        <v>0.06575898043058885</v>
       </c>
     </row>
     <row r="16">
@@ -8702,19 +8702,19 @@
         <v>130590</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>114078</v>
+        <v>113049</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>152348</v>
+        <v>151498</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1247897798931072</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1090116859873698</v>
+        <v>0.1080275304958146</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1455812754968237</v>
+        <v>0.1447692401585167</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>300</v>
@@ -8723,19 +8723,19 @@
         <v>157878</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>141933</v>
+        <v>141330</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>176904</v>
+        <v>175626</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1506983911073851</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1354783915396375</v>
+        <v>0.1349025041812394</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1688589574772079</v>
+        <v>0.1676392245405661</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>493</v>
@@ -8744,19 +8744,19 @@
         <v>288468</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>264503</v>
+        <v>261972</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>316658</v>
+        <v>312949</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1377512758832144</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1263073376684089</v>
+        <v>0.1250989683114969</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1512127365056022</v>
+        <v>0.1494418824166018</v>
       </c>
     </row>
     <row r="17">
@@ -8773,19 +8773,19 @@
         <v>44649</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>33017</v>
+        <v>34417</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>58311</v>
+        <v>57630</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.04266609748260407</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.03155067413067444</v>
+        <v>0.03288847199451</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.05572140747730074</v>
+        <v>0.0550699215788087</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>88</v>
@@ -8794,19 +8794,19 @@
         <v>51480</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>40047</v>
+        <v>40685</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>62197</v>
+        <v>62827</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.04913920222877335</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.03822620601882404</v>
+        <v>0.03883515059320738</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.05936861252505938</v>
+        <v>0.05996973145620434</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>143</v>
@@ -8815,19 +8815,19 @@
         <v>96129</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>80932</v>
+        <v>81876</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>112683</v>
+        <v>114778</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.04590444632797868</v>
+        <v>0.04590444632797869</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.03864747861878341</v>
+        <v>0.03909801692640204</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.05380929648684295</v>
+        <v>0.05480954364048836</v>
       </c>
     </row>
     <row r="18">
@@ -8844,19 +8844,19 @@
         <v>5482</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>2057</v>
+        <v>2102</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>12162</v>
+        <v>11975</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.005238217817804123</v>
+        <v>0.005238217817804124</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.001965549647781356</v>
+        <v>0.002008399527184355</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.01162146453226619</v>
+        <v>0.01144291748454616</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>15</v>
@@ -8865,19 +8865,19 @@
         <v>9836</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>5922</v>
+        <v>5311</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>16394</v>
+        <v>16290</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>0.009388341422610847</v>
+        <v>0.009388341422610849</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.005652961312591315</v>
+        <v>0.005069926044634437</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.01564883642547821</v>
+        <v>0.01554924011750554</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>20</v>
@@ -8886,19 +8886,19 @@
         <v>15317</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>9384</v>
+        <v>9150</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>23826</v>
+        <v>23838</v>
       </c>
       <c r="U18" s="6" t="n">
-        <v>0.007314431398580983</v>
+        <v>0.007314431398580984</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.004481214436717794</v>
+        <v>0.004369346878578326</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.01137763473269964</v>
+        <v>0.01138339947100716</v>
       </c>
     </row>
     <row r="19">
@@ -8915,19 +8915,19 @@
         <v>8098</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>3831</v>
+        <v>4051</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>15543</v>
+        <v>15413</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.007738618670680961</v>
+        <v>0.00773861867068096</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.003660466567247226</v>
+        <v>0.003871465904775522</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.01485305785381563</v>
+        <v>0.01472840369208439</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>10</v>
@@ -8936,19 +8936,19 @@
         <v>6936</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>3248</v>
+        <v>3616</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>12248</v>
+        <v>12277</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.006620375561765665</v>
+        <v>0.006620375561765666</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.003099849861881544</v>
+        <v>0.003451679564455955</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.01169089386897811</v>
+        <v>0.01171879706063718</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>18</v>
@@ -8957,19 +8957,19 @@
         <v>15034</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>8988</v>
+        <v>8729</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>23496</v>
+        <v>23428</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.007179186771676544</v>
+        <v>0.007179186771676545</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.004291905594415403</v>
+        <v>0.004168152322335606</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.01121979046900963</v>
+        <v>0.01118739227646034</v>
       </c>
     </row>
     <row r="20">
@@ -8986,19 +8986,19 @@
         <v>37717</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>26731</v>
+        <v>26678</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>51406</v>
+        <v>51433</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.03604199340141569</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.02554368431040266</v>
+        <v>0.02549356659728091</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.04912279662992556</v>
+        <v>0.04914888891004079</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>68</v>
@@ -9007,19 +9007,19 @@
         <v>52656</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>39949</v>
+        <v>40037</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>67377</v>
+        <v>67085</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.05026098027889426</v>
+        <v>0.05026098027889427</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.03813249451455447</v>
+        <v>0.03821669591874038</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.06431266164209244</v>
+        <v>0.06403422284098202</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>103</v>
@@ -9028,19 +9028,19 @@
         <v>90373</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>72719</v>
+        <v>74318</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>110546</v>
+        <v>111217</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.04315543301697718</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.03472513570691618</v>
+        <v>0.03548879644765255</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.05278896869294736</v>
+        <v>0.05310929293492296</v>
       </c>
     </row>
     <row r="21">
@@ -9057,19 +9057,19 @@
         <v>121101</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>99052</v>
+        <v>101034</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>143135</v>
+        <v>142246</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1157220629691296</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.09465216969686331</v>
+        <v>0.09654644304362597</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1367780762575701</v>
+        <v>0.1359286136788458</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>154</v>
@@ -9078,19 +9078,19 @@
         <v>110356</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>93484</v>
+        <v>93570</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>129327</v>
+        <v>128577</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1053378025193456</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.08923282402779206</v>
+        <v>0.08931471419166133</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.123446000519254</v>
+        <v>0.1227297411854782</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>274</v>
@@ -9099,19 +9099,19 @@
         <v>231457</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>205596</v>
+        <v>205136</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>260652</v>
+        <v>260137</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.110527050814023</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.09817752904921685</v>
+        <v>0.09795782613149322</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1244683997672505</v>
+        <v>0.1242225322034352</v>
       </c>
     </row>
     <row r="22">
@@ -9132,19 +9132,19 @@
         <v>151085</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>131615</v>
+        <v>130535</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>172867</v>
+        <v>172150</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1548114730990407</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1348617546510157</v>
+        <v>0.1337544388668124</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.177130452036913</v>
+        <v>0.1763955244209299</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>255</v>
@@ -9153,19 +9153,19 @@
         <v>140423</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>123600</v>
+        <v>123210</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>158489</v>
+        <v>158074</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1542523064749053</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1357727011239677</v>
+        <v>0.1353440234281186</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1740975889049882</v>
+        <v>0.1736421035889334</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>463</v>
@@ -9174,19 +9174,19 @@
         <v>291508</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>264676</v>
+        <v>266363</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>317724</v>
+        <v>319991</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1545416106688427</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1403166103811972</v>
+        <v>0.1412112594063812</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1684402673629695</v>
+        <v>0.1696417074931955</v>
       </c>
     </row>
     <row r="23">
@@ -9203,19 +9203,19 @@
         <v>46675</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>35551</v>
+        <v>36039</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>60868</v>
+        <v>61265</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.04782603332665387</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.03642823993479119</v>
+        <v>0.03692811023969574</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.06236914136274845</v>
+        <v>0.06277620679274688</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>76</v>
@@ -9224,19 +9224,19 @@
         <v>44388</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>34218</v>
+        <v>35110</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>55153</v>
+        <v>54938</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.04875949096507825</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.03758844954347861</v>
+        <v>0.03856739966333005</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.06058477305844127</v>
+        <v>0.06034818146342286</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>131</v>
@@ -9245,19 +9245,19 @@
         <v>91063</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>77108</v>
+        <v>76078</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>109535</v>
+        <v>107992</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.0482765343685958</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.04087861977763235</v>
+        <v>0.04033234154600331</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.05806926327337819</v>
+        <v>0.05725146190298176</v>
       </c>
     </row>
     <row r="24">
@@ -9274,19 +9274,19 @@
         <v>6120</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>2721</v>
+        <v>2529</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>13232</v>
+        <v>13080</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.006270940745232752</v>
+        <v>0.006270940745232751</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.002787725888935005</v>
+        <v>0.002591508671911756</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.01355861989051331</v>
+        <v>0.01340274585122438</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>19</v>
@@ -9295,19 +9295,19 @@
         <v>14741</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>8971</v>
+        <v>9025</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>23525</v>
+        <v>21941</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.01619310551904856</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.009854121360060059</v>
+        <v>0.009913623205594824</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.02584139038441002</v>
+        <v>0.02410187778864871</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>26</v>
@@ -9316,19 +9316,19 @@
         <v>20861</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>13761</v>
+        <v>13502</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>30689</v>
+        <v>30639</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.01105953037686129</v>
+        <v>0.01105953037686128</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.007295077796847723</v>
+        <v>0.00715823667023438</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.01626979326672975</v>
+        <v>0.01624300247929368</v>
       </c>
     </row>
     <row r="25">
@@ -9345,19 +9345,19 @@
         <v>9465</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>4289</v>
+        <v>4556</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>18138</v>
+        <v>18457</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.009698717445987815</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.004395276569507478</v>
+        <v>0.00466859380812648</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.01858505615958565</v>
+        <v>0.01891188324099604</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>13</v>
@@ -9366,19 +9366,19 @@
         <v>11946</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>6372</v>
+        <v>6374</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>24358</v>
+        <v>24365</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.01312256363157035</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.006999008117194512</v>
+        <v>0.007001742016444526</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.02675690145505486</v>
+        <v>0.02676410652013164</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>22</v>
@@ -9387,19 +9387,19 @@
         <v>21411</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>13875</v>
+        <v>13224</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>35480</v>
+        <v>34264</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.01135111838049338</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.0073558673479702</v>
+        <v>0.007010905787318849</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.01880969500755276</v>
+        <v>0.01816491087194774</v>
       </c>
     </row>
     <row r="26">
@@ -9416,19 +9416,19 @@
         <v>38819</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>27776</v>
+        <v>28296</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>53539</v>
+        <v>52800</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.03977695550779586</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.02846142020261956</v>
+        <v>0.02899424377599165</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.05485923118670536</v>
+        <v>0.05410211930308095</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>49</v>
@@ -9437,19 +9437,19 @@
         <v>35595</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>25166</v>
+        <v>26003</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>45381</v>
+        <v>47172</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.03910003779827138</v>
+        <v>0.03910003779827137</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.02764408325525619</v>
+        <v>0.02856389566034909</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.04985064920398447</v>
+        <v>0.051818012762996</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>87</v>
@@ -9458,19 +9458,19 @@
         <v>74414</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>60254</v>
+        <v>59225</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>92665</v>
+        <v>92287</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.03945026458911158</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.03194316611976827</v>
+        <v>0.03139793078248616</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.04912606601262725</v>
+        <v>0.04892574732329048</v>
       </c>
     </row>
     <row r="27">
@@ -9487,19 +9487,19 @@
         <v>76577</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>60518</v>
+        <v>61276</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>93211</v>
+        <v>94453</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.07846559055063529</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.06201100647207953</v>
+        <v>0.06278752623534338</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.09550979188368137</v>
+        <v>0.09678215845448061</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>121</v>
@@ -9508,19 +9508,19 @@
         <v>78373</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>64895</v>
+        <v>65862</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>94052</v>
+        <v>93358</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.08609187882661683</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.07128643760934877</v>
+        <v>0.0723487474430074</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.1033144602801475</v>
+        <v>0.1025520668233688</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>206</v>
@@ -9529,19 +9529,19 @@
         <v>154950</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>133614</v>
+        <v>134458</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>177200</v>
+        <v>178743</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.08214615480235464</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.0708350675929066</v>
+        <v>0.07128223525273053</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.09394181547659929</v>
+        <v>0.09475978806109736</v>
       </c>
     </row>
     <row r="28">
@@ -9562,19 +9562,19 @@
         <v>458838</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>421083</v>
+        <v>424790</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>494613</v>
+        <v>497181</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1318014905550337</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1209563471610901</v>
+        <v>0.1220211542360832</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1420777427042064</v>
+        <v>0.1428154777231872</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>1117</v>
@@ -9583,19 +9583,19 @@
         <v>598327</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>560856</v>
+        <v>567299</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>631843</v>
+        <v>634083</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1618231296919246</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.151688537402575</v>
+        <v>0.1534313006421368</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1708876058114191</v>
+        <v>0.1714935262994235</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>1776</v>
@@ -9604,19 +9604,19 @@
         <v>1057166</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>1008759</v>
+        <v>1009462</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>1114447</v>
+        <v>1112026</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1472642462853394</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1405210500191202</v>
+        <v>0.1406190736141403</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.15524348295213</v>
+        <v>0.1549062481817419</v>
       </c>
     </row>
     <row r="29">
@@ -9633,19 +9633,19 @@
         <v>194446</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>171610</v>
+        <v>170914</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>223174</v>
+        <v>226339</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.05585475454034169</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.04929491154893851</v>
+        <v>0.04909505015071105</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.06410668330883927</v>
+        <v>0.06501601122816658</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>387</v>
@@ -9654,19 +9654,19 @@
         <v>233325</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>207825</v>
+        <v>211457</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>258230</v>
+        <v>258525</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.0631049922186995</v>
+        <v>0.06310499221869953</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.05620805385054598</v>
+        <v>0.05719040344941177</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.06984067990856783</v>
+        <v>0.06992037868402361</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>616</v>
@@ -9675,19 +9675,19 @@
         <v>427772</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>390037</v>
+        <v>392903</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>460358</v>
+        <v>461708</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.05958901614064671</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.0543324795320649</v>
+        <v>0.05473180788480699</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.06412832046776373</v>
+        <v>0.0643164180830504</v>
       </c>
     </row>
     <row r="30">
@@ -9704,19 +9704,19 @@
         <v>21849</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>13475</v>
+        <v>14020</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>34838</v>
+        <v>35617</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.006276199357385432</v>
+        <v>0.006276199357385433</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.003870627372931581</v>
+        <v>0.004027376656463591</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.0100073103065993</v>
+        <v>0.01023094898165065</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>66</v>
@@ -9725,19 +9725,19 @@
         <v>48559</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>38337</v>
+        <v>37297</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>63302</v>
+        <v>62069</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.0131331710867417</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.01036869213061807</v>
+        <v>0.01008740219704981</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.0171205430316175</v>
+        <v>0.01678706223517344</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>87</v>
@@ -9746,19 +9746,19 @@
         <v>70408</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>57165</v>
+        <v>56331</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>87063</v>
+        <v>88915</v>
       </c>
       <c r="U30" s="6" t="n">
-        <v>0.009807907883265353</v>
+        <v>0.009807907883265351</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.007963169298606134</v>
+        <v>0.007847006802410197</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.01212797168489688</v>
+        <v>0.01238589032636452</v>
       </c>
     </row>
     <row r="31">
@@ -9775,19 +9775,19 @@
         <v>32872</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>21768</v>
+        <v>22393</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>48024</v>
+        <v>48851</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>0.009442448262661633</v>
+        <v>0.009442448262661631</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.006252814174567846</v>
+        <v>0.0064324268468894</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.01379480202578249</v>
+        <v>0.01403256477721943</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>49</v>
@@ -9796,19 +9796,19 @@
         <v>39162</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>29048</v>
+        <v>29058</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>54441</v>
+        <v>54167</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.01059169569482049</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.007856237112355629</v>
+        <v>0.007858919551278496</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.01472417560958848</v>
+        <v>0.01464997793001858</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>77</v>
@@ -9817,19 +9817,19 @@
         <v>72034</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>56201</v>
+        <v>56872</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>90536</v>
+        <v>92139</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.0100343723823316</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.00782891889245395</v>
+        <v>0.007922390116029267</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.01261178288665911</v>
+        <v>0.01283503719175497</v>
       </c>
     </row>
     <row r="32">
@@ -9846,19 +9846,19 @@
         <v>94807</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>74546</v>
+        <v>74782</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>115519</v>
+        <v>116423</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.02723334229169096</v>
+        <v>0.02723334229169097</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.0214134189846693</v>
+        <v>0.02148112391308014</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.03318301243321934</v>
+        <v>0.03344258874655889</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>152</v>
@@ -9867,19 +9867,19 @@
         <v>114893</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>96945</v>
+        <v>94316</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>135797</v>
+        <v>134284</v>
       </c>
       <c r="N32" s="6" t="n">
-        <v>0.031073899830337</v>
+        <v>0.03107389983033701</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.02621977443357474</v>
+        <v>0.02550854201586268</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.03672742428919484</v>
+        <v>0.03631837040098473</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>241</v>
@@ -9888,19 +9888,19 @@
         <v>209700</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>183391</v>
+        <v>182946</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>237903</v>
+        <v>237648</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.02921143558691328</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.02554658133702586</v>
+        <v>0.02548457091358908</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.03314014921797695</v>
+        <v>0.0331046145614524</v>
       </c>
     </row>
     <row r="33">
@@ -9917,19 +9917,19 @@
         <v>273371</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>240167</v>
+        <v>242883</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>304605</v>
+        <v>310007</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.07852600400485626</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.06898813859155382</v>
+        <v>0.06976810850976571</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.08749785584664166</v>
+        <v>0.08904957699705965</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>423</v>
@@ -9938,19 +9938,19 @@
         <v>285641</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>257949</v>
+        <v>256680</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>312387</v>
+        <v>313733</v>
       </c>
       <c r="N33" s="6" t="n">
-        <v>0.07725413551932506</v>
+        <v>0.07725413551932507</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.06976474043005676</v>
+        <v>0.06942141337039104</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.08448783797308053</v>
+        <v>0.08485192320266051</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>706</v>
@@ -9959,19 +9959,19 @@
         <v>559012</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>515336</v>
+        <v>517269</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>601005</v>
+        <v>608376</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.07787092346034739</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.07178680149268148</v>
+        <v>0.07205601874894696</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.08372064392960586</v>
+        <v>0.08474735433689923</v>
       </c>
     </row>
     <row r="34">
